--- a/python_plus_excel/Twitch Streamers.xlsx
+++ b/python_plus_excel/Twitch Streamers.xlsx
@@ -3171,11 +3171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3510,7 +3511,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -3549,7 +3550,7 @@
         <v>1011</v>
       </c>
       <c r="L2">
-        <f t="array" ref="L2:L1001">B2:B1001/ C2:C1001</f>
+        <f>B2/ C2</f>
         <v>0</v>
       </c>
     </row>
@@ -3588,6 +3589,7 @@
         <v>1011</v>
       </c>
       <c r="L3">
+        <f>B3/ C3</f>
         <v>0</v>
       </c>
     </row>
@@ -3626,6 +3628,7 @@
         <v>1012</v>
       </c>
       <c r="L4">
+        <f>B4/ C4</f>
         <v>0</v>
       </c>
     </row>
@@ -3664,6 +3667,7 @@
         <v>1011</v>
       </c>
       <c r="L5">
+        <f>B5/ C5</f>
         <v>0</v>
       </c>
     </row>
@@ -3702,6 +3706,7 @@
         <v>1011</v>
       </c>
       <c r="L6">
+        <f>B6/ C6</f>
         <v>0</v>
       </c>
     </row>
@@ -3740,6 +3745,7 @@
         <v>1011</v>
       </c>
       <c r="L7">
+        <f>B7/ C7</f>
         <v>0</v>
       </c>
     </row>
@@ -3778,6 +3784,7 @@
         <v>1011</v>
       </c>
       <c r="L8">
+        <f>B8/ C8</f>
         <v>0</v>
       </c>
     </row>
@@ -3816,6 +3823,7 @@
         <v>1011</v>
       </c>
       <c r="L9">
+        <f>B9/ C9</f>
         <v>0</v>
       </c>
     </row>
@@ -3854,6 +3862,7 @@
         <v>1011</v>
       </c>
       <c r="L10">
+        <f>B10/ C10</f>
         <v>0</v>
       </c>
     </row>
@@ -3892,6 +3901,7 @@
         <v>1011</v>
       </c>
       <c r="L11">
+        <f>B11/ C11</f>
         <v>0</v>
       </c>
     </row>
@@ -3930,6 +3940,7 @@
         <v>1011</v>
       </c>
       <c r="L12">
+        <f>B12/ C12</f>
         <v>0</v>
       </c>
     </row>
@@ -3968,6 +3979,7 @@
         <v>1011</v>
       </c>
       <c r="L13">
+        <f>B13/ C13</f>
         <v>0</v>
       </c>
     </row>
@@ -4006,6 +4018,7 @@
         <v>1011</v>
       </c>
       <c r="L14">
+        <f>B14/ C14</f>
         <v>0</v>
       </c>
     </row>
@@ -4044,6 +4057,7 @@
         <v>1013</v>
       </c>
       <c r="L15">
+        <f>B15/ C15</f>
         <v>0</v>
       </c>
     </row>
@@ -4082,6 +4096,7 @@
         <v>1013</v>
       </c>
       <c r="L16">
+        <f>B16/ C16</f>
         <v>0</v>
       </c>
     </row>
@@ -4120,6 +4135,7 @@
         <v>1014</v>
       </c>
       <c r="L17">
+        <f>B17/ C17</f>
         <v>0</v>
       </c>
     </row>
@@ -4158,6 +4174,7 @@
         <v>1011</v>
       </c>
       <c r="L18">
+        <f>B18/ C18</f>
         <v>0</v>
       </c>
     </row>
@@ -4196,6 +4213,7 @@
         <v>1015</v>
       </c>
       <c r="L19">
+        <f>B19/ C19</f>
         <v>0</v>
       </c>
     </row>
@@ -4234,6 +4252,7 @@
         <v>1012</v>
       </c>
       <c r="L20">
+        <f>B20/ C20</f>
         <v>0</v>
       </c>
     </row>
@@ -4272,6 +4291,7 @@
         <v>1011</v>
       </c>
       <c r="L21">
+        <f>B21/ C21</f>
         <v>0</v>
       </c>
     </row>
@@ -4310,6 +4330,7 @@
         <v>1011</v>
       </c>
       <c r="L22">
+        <f>B22/ C22</f>
         <v>0</v>
       </c>
     </row>
@@ -4348,6 +4369,7 @@
         <v>1015</v>
       </c>
       <c r="L23">
+        <f>B23/ C23</f>
         <v>0</v>
       </c>
     </row>
@@ -4386,6 +4408,7 @@
         <v>1011</v>
       </c>
       <c r="L24">
+        <f>B24/ C24</f>
         <v>0</v>
       </c>
     </row>
@@ -4424,6 +4447,7 @@
         <v>1011</v>
       </c>
       <c r="L25">
+        <f>B25/ C25</f>
         <v>0</v>
       </c>
     </row>
@@ -4462,6 +4486,7 @@
         <v>1014</v>
       </c>
       <c r="L26">
+        <f>B26/ C26</f>
         <v>0</v>
       </c>
     </row>
@@ -4500,6 +4525,7 @@
         <v>1013</v>
       </c>
       <c r="L27">
+        <f>B27/ C27</f>
         <v>0</v>
       </c>
     </row>
@@ -4538,6 +4564,7 @@
         <v>1012</v>
       </c>
       <c r="L28">
+        <f>B28/ C28</f>
         <v>0</v>
       </c>
     </row>
@@ -4576,6 +4603,7 @@
         <v>1011</v>
       </c>
       <c r="L29">
+        <f>B29/ C29</f>
         <v>0</v>
       </c>
     </row>
@@ -4614,6 +4642,7 @@
         <v>1015</v>
       </c>
       <c r="L30">
+        <f>B30/ C30</f>
         <v>0</v>
       </c>
     </row>
@@ -4652,6 +4681,7 @@
         <v>1011</v>
       </c>
       <c r="L31">
+        <f>B31/ C31</f>
         <v>0</v>
       </c>
     </row>
@@ -4690,6 +4720,7 @@
         <v>1016</v>
       </c>
       <c r="L32">
+        <f>B32/ C32</f>
         <v>0</v>
       </c>
     </row>
@@ -4728,6 +4759,7 @@
         <v>1016</v>
       </c>
       <c r="L33">
+        <f>B33/ C33</f>
         <v>0</v>
       </c>
     </row>
@@ -4766,6 +4798,7 @@
         <v>1011</v>
       </c>
       <c r="L34">
+        <f>B34/ C34</f>
         <v>0</v>
       </c>
     </row>
@@ -4804,6 +4837,7 @@
         <v>1011</v>
       </c>
       <c r="L35">
+        <f>B35/ C35</f>
         <v>0</v>
       </c>
     </row>
@@ -4842,6 +4876,7 @@
         <v>1016</v>
       </c>
       <c r="L36">
+        <f>B36/ C36</f>
         <v>0</v>
       </c>
     </row>
@@ -4880,6 +4915,7 @@
         <v>1011</v>
       </c>
       <c r="L37">
+        <f>B37/ C37</f>
         <v>0</v>
       </c>
     </row>
@@ -4918,6 +4954,7 @@
         <v>1017</v>
       </c>
       <c r="L38">
+        <f>B38/ C38</f>
         <v>0</v>
       </c>
     </row>
@@ -4956,6 +4993,7 @@
         <v>1011</v>
       </c>
       <c r="L39">
+        <f>B39/ C39</f>
         <v>0</v>
       </c>
     </row>
@@ -4994,6 +5032,7 @@
         <v>1011</v>
       </c>
       <c r="L40">
+        <f>B40/ C40</f>
         <v>0</v>
       </c>
     </row>
@@ -5032,6 +5071,7 @@
         <v>1017</v>
       </c>
       <c r="L41">
+        <f>B41/ C41</f>
         <v>0</v>
       </c>
     </row>
@@ -5070,6 +5110,7 @@
         <v>1011</v>
       </c>
       <c r="L42">
+        <f>B42/ C42</f>
         <v>0</v>
       </c>
     </row>
@@ -5108,6 +5149,7 @@
         <v>1011</v>
       </c>
       <c r="L43">
+        <f>B43/ C43</f>
         <v>0</v>
       </c>
     </row>
@@ -5146,6 +5188,7 @@
         <v>1011</v>
       </c>
       <c r="L44">
+        <f>B44/ C44</f>
         <v>0</v>
       </c>
     </row>
@@ -5184,6 +5227,7 @@
         <v>1013</v>
       </c>
       <c r="L45">
+        <f>B45/ C45</f>
         <v>0</v>
       </c>
     </row>
@@ -5222,6 +5266,7 @@
         <v>1011</v>
       </c>
       <c r="L46">
+        <f>B46/ C46</f>
         <v>0</v>
       </c>
     </row>
@@ -5260,6 +5305,7 @@
         <v>1016</v>
       </c>
       <c r="L47">
+        <f>B47/ C47</f>
         <v>0</v>
       </c>
     </row>
@@ -5298,6 +5344,7 @@
         <v>1011</v>
       </c>
       <c r="L48">
+        <f>B48/ C48</f>
         <v>0</v>
       </c>
     </row>
@@ -5336,6 +5383,7 @@
         <v>1011</v>
       </c>
       <c r="L49">
+        <f>B49/ C49</f>
         <v>0</v>
       </c>
     </row>
@@ -5374,6 +5422,7 @@
         <v>1011</v>
       </c>
       <c r="L50">
+        <f>B50/ C50</f>
         <v>0</v>
       </c>
     </row>
@@ -5412,6 +5461,7 @@
         <v>1011</v>
       </c>
       <c r="L51">
+        <f>B51/ C51</f>
         <v>0</v>
       </c>
     </row>
@@ -5450,6 +5500,7 @@
         <v>1017</v>
       </c>
       <c r="L52">
+        <f>B52/ C52</f>
         <v>0</v>
       </c>
     </row>
@@ -5488,6 +5539,7 @@
         <v>1011</v>
       </c>
       <c r="L53">
+        <f>B53/ C53</f>
         <v>0</v>
       </c>
     </row>
@@ -5526,6 +5578,7 @@
         <v>1011</v>
       </c>
       <c r="L54">
+        <f>B54/ C54</f>
         <v>0</v>
       </c>
     </row>
@@ -5564,6 +5617,7 @@
         <v>1017</v>
       </c>
       <c r="L55">
+        <f>B55/ C55</f>
         <v>0</v>
       </c>
     </row>
@@ -5602,6 +5656,7 @@
         <v>1011</v>
       </c>
       <c r="L56">
+        <f>B56/ C56</f>
         <v>0</v>
       </c>
     </row>
@@ -5640,6 +5695,7 @@
         <v>1011</v>
       </c>
       <c r="L57">
+        <f>B57/ C57</f>
         <v>0</v>
       </c>
     </row>
@@ -5678,6 +5734,7 @@
         <v>1015</v>
       </c>
       <c r="L58">
+        <f>B58/ C58</f>
         <v>0</v>
       </c>
     </row>
@@ -5716,6 +5773,7 @@
         <v>1014</v>
       </c>
       <c r="L59">
+        <f>B59/ C59</f>
         <v>0</v>
       </c>
     </row>
@@ -5754,6 +5812,7 @@
         <v>1012</v>
       </c>
       <c r="L60">
+        <f>B60/ C60</f>
         <v>0</v>
       </c>
     </row>
@@ -5792,6 +5851,7 @@
         <v>1016</v>
       </c>
       <c r="L61">
+        <f>B61/ C61</f>
         <v>0</v>
       </c>
     </row>
@@ -5830,6 +5890,7 @@
         <v>1016</v>
       </c>
       <c r="L62">
+        <f>B62/ C62</f>
         <v>0</v>
       </c>
     </row>
@@ -5868,6 +5929,7 @@
         <v>1011</v>
       </c>
       <c r="L63">
+        <f>B63/ C63</f>
         <v>0</v>
       </c>
     </row>
@@ -5906,6 +5968,7 @@
         <v>1011</v>
       </c>
       <c r="L64">
+        <f>B64/ C64</f>
         <v>0</v>
       </c>
     </row>
@@ -5944,6 +6007,7 @@
         <v>1011</v>
       </c>
       <c r="L65">
+        <f>B65/ C65</f>
         <v>0</v>
       </c>
     </row>
@@ -5982,6 +6046,7 @@
         <v>1014</v>
       </c>
       <c r="L66">
+        <f>B66/ C66</f>
         <v>0</v>
       </c>
     </row>
@@ -6020,6 +6085,7 @@
         <v>1011</v>
       </c>
       <c r="L67">
+        <f>B67/ C67</f>
         <v>0</v>
       </c>
     </row>
@@ -6058,6 +6124,7 @@
         <v>1011</v>
       </c>
       <c r="L68">
+        <f>B68/ C68</f>
         <v>0</v>
       </c>
     </row>
@@ -6096,6 +6163,7 @@
         <v>1011</v>
       </c>
       <c r="L69">
+        <f>B69/ C69</f>
         <v>0</v>
       </c>
     </row>
@@ -6134,6 +6202,7 @@
         <v>1018</v>
       </c>
       <c r="L70">
+        <f>B70/ C70</f>
         <v>0</v>
       </c>
     </row>
@@ -6172,6 +6241,7 @@
         <v>1013</v>
       </c>
       <c r="L71">
+        <f>B71/ C71</f>
         <v>0</v>
       </c>
     </row>
@@ -6210,6 +6280,7 @@
         <v>1011</v>
       </c>
       <c r="L72">
+        <f>B72/ C72</f>
         <v>0</v>
       </c>
     </row>
@@ -6248,6 +6319,7 @@
         <v>1011</v>
       </c>
       <c r="L73">
+        <f>B73/ C73</f>
         <v>0</v>
       </c>
     </row>
@@ -6286,6 +6358,7 @@
         <v>1014</v>
       </c>
       <c r="L74">
+        <f>B74/ C74</f>
         <v>0</v>
       </c>
     </row>
@@ -6324,6 +6397,7 @@
         <v>1011</v>
       </c>
       <c r="L75">
+        <f>B75/ C75</f>
         <v>0</v>
       </c>
     </row>
@@ -6362,6 +6436,7 @@
         <v>1011</v>
       </c>
       <c r="L76">
+        <f>B76/ C76</f>
         <v>0</v>
       </c>
     </row>
@@ -6400,6 +6475,7 @@
         <v>1011</v>
       </c>
       <c r="L77">
+        <f>B77/ C77</f>
         <v>0</v>
       </c>
     </row>
@@ -6438,6 +6514,7 @@
         <v>1011</v>
       </c>
       <c r="L78">
+        <f>B78/ C78</f>
         <v>0</v>
       </c>
     </row>
@@ -6476,6 +6553,7 @@
         <v>1011</v>
       </c>
       <c r="L79">
+        <f>B79/ C79</f>
         <v>0</v>
       </c>
     </row>
@@ -6514,6 +6592,7 @@
         <v>1018</v>
       </c>
       <c r="L80">
+        <f>B80/ C80</f>
         <v>0</v>
       </c>
     </row>
@@ -6552,6 +6631,7 @@
         <v>1011</v>
       </c>
       <c r="L81">
+        <f>B81/ C81</f>
         <v>0</v>
       </c>
     </row>
@@ -6590,6 +6670,7 @@
         <v>1011</v>
       </c>
       <c r="L82">
+        <f>B82/ C82</f>
         <v>0</v>
       </c>
     </row>
@@ -6628,6 +6709,7 @@
         <v>1011</v>
       </c>
       <c r="L83">
+        <f>B83/ C83</f>
         <v>0</v>
       </c>
     </row>
@@ -6666,6 +6748,7 @@
         <v>1014</v>
       </c>
       <c r="L84">
+        <f>B84/ C84</f>
         <v>0</v>
       </c>
     </row>
@@ -6704,6 +6787,7 @@
         <v>1011</v>
       </c>
       <c r="L85">
+        <f>B85/ C85</f>
         <v>0</v>
       </c>
     </row>
@@ -6742,6 +6826,7 @@
         <v>1016</v>
       </c>
       <c r="L86">
+        <f>B86/ C86</f>
         <v>0</v>
       </c>
     </row>
@@ -6780,6 +6865,7 @@
         <v>1017</v>
       </c>
       <c r="L87">
+        <f>B87/ C87</f>
         <v>0</v>
       </c>
     </row>
@@ -6818,6 +6904,7 @@
         <v>1011</v>
       </c>
       <c r="L88">
+        <f>B88/ C88</f>
         <v>0</v>
       </c>
     </row>
@@ -6856,6 +6943,7 @@
         <v>1011</v>
       </c>
       <c r="L89">
+        <f>B89/ C89</f>
         <v>0</v>
       </c>
     </row>
@@ -6894,6 +6982,7 @@
         <v>1017</v>
       </c>
       <c r="L90">
+        <f>B90/ C90</f>
         <v>0</v>
       </c>
     </row>
@@ -6932,6 +7021,7 @@
         <v>1011</v>
       </c>
       <c r="L91">
+        <f>B91/ C91</f>
         <v>0</v>
       </c>
     </row>
@@ -6970,6 +7060,7 @@
         <v>1011</v>
       </c>
       <c r="L92">
+        <f>B92/ C92</f>
         <v>0</v>
       </c>
     </row>
@@ -7008,6 +7099,7 @@
         <v>1016</v>
       </c>
       <c r="L93">
+        <f>B93/ C93</f>
         <v>0</v>
       </c>
     </row>
@@ -7046,6 +7138,7 @@
         <v>1017</v>
       </c>
       <c r="L94">
+        <f>B94/ C94</f>
         <v>0</v>
       </c>
     </row>
@@ -7084,6 +7177,7 @@
         <v>1011</v>
       </c>
       <c r="L95">
+        <f>B95/ C95</f>
         <v>0</v>
       </c>
     </row>
@@ -7122,6 +7216,7 @@
         <v>1011</v>
       </c>
       <c r="L96">
+        <f>B96/ C96</f>
         <v>0</v>
       </c>
     </row>
@@ -7160,6 +7255,7 @@
         <v>1011</v>
       </c>
       <c r="L97">
+        <f>B97/ C97</f>
         <v>0</v>
       </c>
     </row>
@@ -7198,6 +7294,7 @@
         <v>1011</v>
       </c>
       <c r="L98">
+        <f>B98/ C98</f>
         <v>0</v>
       </c>
     </row>
@@ -7236,6 +7333,7 @@
         <v>1012</v>
       </c>
       <c r="L99">
+        <f>B99/ C99</f>
         <v>0</v>
       </c>
     </row>
@@ -7274,6 +7372,7 @@
         <v>1017</v>
       </c>
       <c r="L100">
+        <f>B100/ C100</f>
         <v>0</v>
       </c>
     </row>
@@ -7312,6 +7411,7 @@
         <v>1011</v>
       </c>
       <c r="L101">
+        <f>B101/ C101</f>
         <v>0</v>
       </c>
     </row>
@@ -7350,6 +7450,7 @@
         <v>1012</v>
       </c>
       <c r="L102">
+        <f>B102/ C102</f>
         <v>0</v>
       </c>
     </row>
@@ -7388,6 +7489,7 @@
         <v>1015</v>
       </c>
       <c r="L103">
+        <f>B103/ C103</f>
         <v>0</v>
       </c>
     </row>
@@ -7426,6 +7528,7 @@
         <v>1017</v>
       </c>
       <c r="L104">
+        <f>B104/ C104</f>
         <v>0</v>
       </c>
     </row>
@@ -7464,6 +7567,7 @@
         <v>1013</v>
       </c>
       <c r="L105">
+        <f>B105/ C105</f>
         <v>0</v>
       </c>
     </row>
@@ -7502,6 +7606,7 @@
         <v>1011</v>
       </c>
       <c r="L106">
+        <f>B106/ C106</f>
         <v>0</v>
       </c>
     </row>
@@ -7540,6 +7645,7 @@
         <v>1013</v>
       </c>
       <c r="L107">
+        <f>B107/ C107</f>
         <v>0</v>
       </c>
     </row>
@@ -7578,6 +7684,7 @@
         <v>1012</v>
       </c>
       <c r="L108">
+        <f>B108/ C108</f>
         <v>0</v>
       </c>
     </row>
@@ -7616,6 +7723,7 @@
         <v>1016</v>
       </c>
       <c r="L109">
+        <f>B109/ C109</f>
         <v>0</v>
       </c>
     </row>
@@ -7654,6 +7762,7 @@
         <v>1012</v>
       </c>
       <c r="L110">
+        <f>B110/ C110</f>
         <v>0</v>
       </c>
     </row>
@@ -7692,6 +7801,7 @@
         <v>1017</v>
       </c>
       <c r="L111">
+        <f>B111/ C111</f>
         <v>0</v>
       </c>
     </row>
@@ -7730,6 +7840,7 @@
         <v>1019</v>
       </c>
       <c r="L112">
+        <f>B112/ C112</f>
         <v>0</v>
       </c>
     </row>
@@ -7768,6 +7879,7 @@
         <v>1011</v>
       </c>
       <c r="L113">
+        <f>B113/ C113</f>
         <v>0</v>
       </c>
     </row>
@@ -7806,6 +7918,7 @@
         <v>1011</v>
       </c>
       <c r="L114">
+        <f>B114/ C114</f>
         <v>0</v>
       </c>
     </row>
@@ -7844,6 +7957,7 @@
         <v>1011</v>
       </c>
       <c r="L115">
+        <f>B115/ C115</f>
         <v>0</v>
       </c>
     </row>
@@ -7882,6 +7996,7 @@
         <v>1011</v>
       </c>
       <c r="L116">
+        <f>B116/ C116</f>
         <v>0</v>
       </c>
     </row>
@@ -7920,6 +8035,7 @@
         <v>1011</v>
       </c>
       <c r="L117">
+        <f>B117/ C117</f>
         <v>0</v>
       </c>
     </row>
@@ -7958,6 +8074,7 @@
         <v>1020</v>
       </c>
       <c r="L118">
+        <f>B118/ C118</f>
         <v>0</v>
       </c>
     </row>
@@ -7996,6 +8113,7 @@
         <v>1011</v>
       </c>
       <c r="L119">
+        <f>B119/ C119</f>
         <v>0</v>
       </c>
     </row>
@@ -8034,6 +8152,7 @@
         <v>1011</v>
       </c>
       <c r="L120">
+        <f>B120/ C120</f>
         <v>0</v>
       </c>
     </row>
@@ -8072,6 +8191,7 @@
         <v>1011</v>
       </c>
       <c r="L121">
+        <f>B121/ C121</f>
         <v>0</v>
       </c>
     </row>
@@ -8110,6 +8230,7 @@
         <v>1019</v>
       </c>
       <c r="L122">
+        <f>B122/ C122</f>
         <v>0</v>
       </c>
     </row>
@@ -8148,6 +8269,7 @@
         <v>1021</v>
       </c>
       <c r="L123">
+        <f>B123/ C123</f>
         <v>0</v>
       </c>
     </row>
@@ -8186,6 +8308,7 @@
         <v>1011</v>
       </c>
       <c r="L124">
+        <f>B124/ C124</f>
         <v>0</v>
       </c>
     </row>
@@ -8224,6 +8347,7 @@
         <v>1011</v>
       </c>
       <c r="L125">
+        <f>B125/ C125</f>
         <v>0</v>
       </c>
     </row>
@@ -8262,6 +8386,7 @@
         <v>1022</v>
       </c>
       <c r="L126">
+        <f>B126/ C126</f>
         <v>0</v>
       </c>
     </row>
@@ -8300,6 +8425,7 @@
         <v>1023</v>
       </c>
       <c r="L127">
+        <f>B127/ C127</f>
         <v>0</v>
       </c>
     </row>
@@ -8338,6 +8464,7 @@
         <v>1017</v>
       </c>
       <c r="L128">
+        <f>B128/ C128</f>
         <v>0</v>
       </c>
     </row>
@@ -8376,6 +8503,7 @@
         <v>1015</v>
       </c>
       <c r="L129">
+        <f>B129/ C129</f>
         <v>0</v>
       </c>
     </row>
@@ -8414,6 +8542,7 @@
         <v>1011</v>
       </c>
       <c r="L130">
+        <f>B130/ C130</f>
         <v>0</v>
       </c>
     </row>
@@ -8452,6 +8581,7 @@
         <v>1013</v>
       </c>
       <c r="L131">
+        <f>B131/ C131</f>
         <v>0</v>
       </c>
     </row>
@@ -8490,6 +8620,7 @@
         <v>1016</v>
       </c>
       <c r="L132">
+        <f>B132/ C132</f>
         <v>0</v>
       </c>
     </row>
@@ -8528,6 +8659,7 @@
         <v>1011</v>
       </c>
       <c r="L133">
+        <f>B133/ C133</f>
         <v>0</v>
       </c>
     </row>
@@ -8566,6 +8698,7 @@
         <v>1016</v>
       </c>
       <c r="L134">
+        <f>B134/ C134</f>
         <v>0</v>
       </c>
     </row>
@@ -8604,6 +8737,7 @@
         <v>1011</v>
       </c>
       <c r="L135">
+        <f>B135/ C135</f>
         <v>0</v>
       </c>
     </row>
@@ -8642,6 +8776,7 @@
         <v>1011</v>
       </c>
       <c r="L136">
+        <f>B136/ C136</f>
         <v>0</v>
       </c>
     </row>
@@ -8680,6 +8815,7 @@
         <v>1011</v>
       </c>
       <c r="L137">
+        <f>B137/ C137</f>
         <v>0</v>
       </c>
     </row>
@@ -8718,6 +8854,7 @@
         <v>1011</v>
       </c>
       <c r="L138">
+        <f>B138/ C138</f>
         <v>0</v>
       </c>
     </row>
@@ -8756,6 +8893,7 @@
         <v>1019</v>
       </c>
       <c r="L139">
+        <f>B139/ C139</f>
         <v>0</v>
       </c>
     </row>
@@ -8794,6 +8932,7 @@
         <v>1011</v>
       </c>
       <c r="L140">
+        <f>B140/ C140</f>
         <v>0</v>
       </c>
     </row>
@@ -8832,6 +8971,7 @@
         <v>1015</v>
       </c>
       <c r="L141">
+        <f>B141/ C141</f>
         <v>0</v>
       </c>
     </row>
@@ -8870,6 +9010,7 @@
         <v>1011</v>
       </c>
       <c r="L142">
+        <f>B142/ C142</f>
         <v>0</v>
       </c>
     </row>
@@ -8908,6 +9049,7 @@
         <v>1017</v>
       </c>
       <c r="L143">
+        <f>B143/ C143</f>
         <v>0</v>
       </c>
     </row>
@@ -8946,6 +9088,7 @@
         <v>1011</v>
       </c>
       <c r="L144">
+        <f>B144/ C144</f>
         <v>0</v>
       </c>
     </row>
@@ -8984,6 +9127,7 @@
         <v>1015</v>
       </c>
       <c r="L145">
+        <f>B145/ C145</f>
         <v>0</v>
       </c>
     </row>
@@ -9022,6 +9166,7 @@
         <v>1012</v>
       </c>
       <c r="L146">
+        <f>B146/ C146</f>
         <v>0</v>
       </c>
     </row>
@@ -9060,6 +9205,7 @@
         <v>1019</v>
       </c>
       <c r="L147">
+        <f>B147/ C147</f>
         <v>0</v>
       </c>
     </row>
@@ -9098,6 +9244,7 @@
         <v>1014</v>
       </c>
       <c r="L148">
+        <f>B148/ C148</f>
         <v>0</v>
       </c>
     </row>
@@ -9136,6 +9283,7 @@
         <v>1013</v>
       </c>
       <c r="L149">
+        <f>B149/ C149</f>
         <v>0</v>
       </c>
     </row>
@@ -9174,6 +9322,7 @@
         <v>1011</v>
       </c>
       <c r="L150">
+        <f>B150/ C150</f>
         <v>0</v>
       </c>
     </row>
@@ -9212,6 +9361,7 @@
         <v>1011</v>
       </c>
       <c r="L151">
+        <f>B151/ C151</f>
         <v>0</v>
       </c>
     </row>
@@ -9250,6 +9400,7 @@
         <v>1016</v>
       </c>
       <c r="L152">
+        <f>B152/ C152</f>
         <v>0</v>
       </c>
     </row>
@@ -9288,6 +9439,7 @@
         <v>1019</v>
       </c>
       <c r="L153">
+        <f>B153/ C153</f>
         <v>0</v>
       </c>
     </row>
@@ -9326,6 +9478,7 @@
         <v>1011</v>
       </c>
       <c r="L154">
+        <f>B154/ C154</f>
         <v>0</v>
       </c>
     </row>
@@ -9364,6 +9517,7 @@
         <v>1011</v>
       </c>
       <c r="L155">
+        <f>B155/ C155</f>
         <v>0</v>
       </c>
     </row>
@@ -9402,6 +9556,7 @@
         <v>1017</v>
       </c>
       <c r="L156">
+        <f>B156/ C156</f>
         <v>0</v>
       </c>
     </row>
@@ -9440,6 +9595,7 @@
         <v>1011</v>
       </c>
       <c r="L157">
+        <f>B157/ C157</f>
         <v>0</v>
       </c>
     </row>
@@ -9478,6 +9634,7 @@
         <v>1022</v>
       </c>
       <c r="L158">
+        <f>B158/ C158</f>
         <v>0</v>
       </c>
     </row>
@@ -9516,6 +9673,7 @@
         <v>1015</v>
       </c>
       <c r="L159">
+        <f>B159/ C159</f>
         <v>0</v>
       </c>
     </row>
@@ -9554,6 +9712,7 @@
         <v>1012</v>
       </c>
       <c r="L160">
+        <f>B160/ C160</f>
         <v>0</v>
       </c>
     </row>
@@ -9592,6 +9751,7 @@
         <v>1016</v>
       </c>
       <c r="L161">
+        <f>B161/ C161</f>
         <v>0</v>
       </c>
     </row>
@@ -9630,6 +9790,7 @@
         <v>1013</v>
       </c>
       <c r="L162">
+        <f>B162/ C162</f>
         <v>0</v>
       </c>
     </row>
@@ -9668,6 +9829,7 @@
         <v>1015</v>
       </c>
       <c r="L163">
+        <f>B163/ C163</f>
         <v>0</v>
       </c>
     </row>
@@ -9706,6 +9868,7 @@
         <v>1011</v>
       </c>
       <c r="L164">
+        <f>B164/ C164</f>
         <v>0</v>
       </c>
     </row>
@@ -9744,6 +9907,7 @@
         <v>1011</v>
       </c>
       <c r="L165">
+        <f>B165/ C165</f>
         <v>0</v>
       </c>
     </row>
@@ -9782,6 +9946,7 @@
         <v>1017</v>
       </c>
       <c r="L166">
+        <f>B166/ C166</f>
         <v>0</v>
       </c>
     </row>
@@ -9820,6 +9985,7 @@
         <v>1011</v>
       </c>
       <c r="L167">
+        <f>B167/ C167</f>
         <v>0</v>
       </c>
     </row>
@@ -9858,6 +10024,7 @@
         <v>1011</v>
       </c>
       <c r="L168">
+        <f>B168/ C168</f>
         <v>0</v>
       </c>
     </row>
@@ -9896,6 +10063,7 @@
         <v>1021</v>
       </c>
       <c r="L169">
+        <f>B169/ C169</f>
         <v>0</v>
       </c>
     </row>
@@ -9934,6 +10102,7 @@
         <v>1011</v>
       </c>
       <c r="L170">
+        <f>B170/ C170</f>
         <v>0</v>
       </c>
     </row>
@@ -9972,6 +10141,7 @@
         <v>1011</v>
       </c>
       <c r="L171">
+        <f>B171/ C171</f>
         <v>0</v>
       </c>
     </row>
@@ -10010,6 +10180,7 @@
         <v>1017</v>
       </c>
       <c r="L172">
+        <f>B172/ C172</f>
         <v>0</v>
       </c>
     </row>
@@ -10048,6 +10219,7 @@
         <v>1013</v>
       </c>
       <c r="L173">
+        <f>B173/ C173</f>
         <v>0</v>
       </c>
     </row>
@@ -10086,6 +10258,7 @@
         <v>1011</v>
       </c>
       <c r="L174">
+        <f>B174/ C174</f>
         <v>0</v>
       </c>
     </row>
@@ -10124,6 +10297,7 @@
         <v>1023</v>
       </c>
       <c r="L175">
+        <f>B175/ C175</f>
         <v>0</v>
       </c>
     </row>
@@ -10162,6 +10336,7 @@
         <v>1023</v>
       </c>
       <c r="L176">
+        <f>B176/ C176</f>
         <v>0</v>
       </c>
     </row>
@@ -10200,6 +10375,7 @@
         <v>1011</v>
       </c>
       <c r="L177">
+        <f>B177/ C177</f>
         <v>0</v>
       </c>
     </row>
@@ -10238,6 +10414,7 @@
         <v>1021</v>
       </c>
       <c r="L178">
+        <f>B178/ C178</f>
         <v>0</v>
       </c>
     </row>
@@ -10276,6 +10453,7 @@
         <v>1021</v>
       </c>
       <c r="L179">
+        <f>B179/ C179</f>
         <v>0</v>
       </c>
     </row>
@@ -10314,6 +10492,7 @@
         <v>1011</v>
       </c>
       <c r="L180">
+        <f>B180/ C180</f>
         <v>0</v>
       </c>
     </row>
@@ -10352,6 +10531,7 @@
         <v>1011</v>
       </c>
       <c r="L181">
+        <f>B181/ C181</f>
         <v>0</v>
       </c>
     </row>
@@ -10390,6 +10570,7 @@
         <v>1013</v>
       </c>
       <c r="L182">
+        <f>B182/ C182</f>
         <v>0</v>
       </c>
     </row>
@@ -10428,6 +10609,7 @@
         <v>1011</v>
       </c>
       <c r="L183">
+        <f>B183/ C183</f>
         <v>0</v>
       </c>
     </row>
@@ -10466,6 +10648,7 @@
         <v>1011</v>
       </c>
       <c r="L184">
+        <f>B184/ C184</f>
         <v>0</v>
       </c>
     </row>
@@ -10504,6 +10687,7 @@
         <v>1011</v>
       </c>
       <c r="L185">
+        <f>B185/ C185</f>
         <v>0</v>
       </c>
     </row>
@@ -10542,6 +10726,7 @@
         <v>1011</v>
       </c>
       <c r="L186">
+        <f>B186/ C186</f>
         <v>0</v>
       </c>
     </row>
@@ -10580,6 +10765,7 @@
         <v>1015</v>
       </c>
       <c r="L187">
+        <f>B187/ C187</f>
         <v>0</v>
       </c>
     </row>
@@ -10618,6 +10804,7 @@
         <v>1011</v>
       </c>
       <c r="L188">
+        <f>B188/ C188</f>
         <v>0</v>
       </c>
     </row>
@@ -10656,6 +10843,7 @@
         <v>1012</v>
       </c>
       <c r="L189">
+        <f>B189/ C189</f>
         <v>0</v>
       </c>
     </row>
@@ -10694,6 +10882,7 @@
         <v>1012</v>
       </c>
       <c r="L190">
+        <f>B190/ C190</f>
         <v>0</v>
       </c>
     </row>
@@ -10732,6 +10921,7 @@
         <v>1011</v>
       </c>
       <c r="L191">
+        <f>B191/ C191</f>
         <v>0</v>
       </c>
     </row>
@@ -10770,6 +10960,7 @@
         <v>1015</v>
       </c>
       <c r="L192">
+        <f>B192/ C192</f>
         <v>0</v>
       </c>
     </row>
@@ -10808,6 +10999,7 @@
         <v>1024</v>
       </c>
       <c r="L193">
+        <f>B193/ C193</f>
         <v>0</v>
       </c>
     </row>
@@ -10846,6 +11038,7 @@
         <v>1011</v>
       </c>
       <c r="L194">
+        <f>B194/ C194</f>
         <v>0</v>
       </c>
     </row>
@@ -10884,6 +11077,7 @@
         <v>1019</v>
       </c>
       <c r="L195">
+        <f>B195/ C195</f>
         <v>0</v>
       </c>
     </row>
@@ -10922,6 +11116,7 @@
         <v>1011</v>
       </c>
       <c r="L196">
+        <f>B196/ C196</f>
         <v>0</v>
       </c>
     </row>
@@ -10960,6 +11155,7 @@
         <v>1017</v>
       </c>
       <c r="L197">
+        <f>B197/ C197</f>
         <v>0</v>
       </c>
     </row>
@@ -10998,6 +11194,7 @@
         <v>1011</v>
       </c>
       <c r="L198">
+        <f>B198/ C198</f>
         <v>0</v>
       </c>
     </row>
@@ -11036,6 +11233,7 @@
         <v>1011</v>
       </c>
       <c r="L199">
+        <f>B199/ C199</f>
         <v>0</v>
       </c>
     </row>
@@ -11074,6 +11272,7 @@
         <v>1015</v>
       </c>
       <c r="L200">
+        <f>B200/ C200</f>
         <v>0</v>
       </c>
     </row>
@@ -11112,6 +11311,7 @@
         <v>1021</v>
       </c>
       <c r="L201">
+        <f>B201/ C201</f>
         <v>0</v>
       </c>
     </row>
@@ -11150,6 +11350,7 @@
         <v>1023</v>
       </c>
       <c r="L202">
+        <f>B202/ C202</f>
         <v>0</v>
       </c>
     </row>
@@ -11188,6 +11389,7 @@
         <v>1011</v>
       </c>
       <c r="L203">
+        <f>B203/ C203</f>
         <v>0</v>
       </c>
     </row>
@@ -11226,6 +11428,7 @@
         <v>1011</v>
       </c>
       <c r="L204">
+        <f>B204/ C204</f>
         <v>0</v>
       </c>
     </row>
@@ -11264,6 +11467,7 @@
         <v>1011</v>
       </c>
       <c r="L205">
+        <f>B205/ C205</f>
         <v>0</v>
       </c>
     </row>
@@ -11302,6 +11506,7 @@
         <v>1011</v>
       </c>
       <c r="L206">
+        <f>B206/ C206</f>
         <v>0</v>
       </c>
     </row>
@@ -11340,6 +11545,7 @@
         <v>1011</v>
       </c>
       <c r="L207">
+        <f>B207/ C207</f>
         <v>0</v>
       </c>
     </row>
@@ -11378,6 +11584,7 @@
         <v>1011</v>
       </c>
       <c r="L208">
+        <f>B208/ C208</f>
         <v>0</v>
       </c>
     </row>
@@ -11416,6 +11623,7 @@
         <v>1011</v>
       </c>
       <c r="L209">
+        <f>B209/ C209</f>
         <v>0</v>
       </c>
     </row>
@@ -11454,6 +11662,7 @@
         <v>1019</v>
       </c>
       <c r="L210">
+        <f>B210/ C210</f>
         <v>0</v>
       </c>
     </row>
@@ -11492,6 +11701,7 @@
         <v>1011</v>
       </c>
       <c r="L211">
+        <f>B211/ C211</f>
         <v>0</v>
       </c>
     </row>
@@ -11530,6 +11740,7 @@
         <v>1011</v>
       </c>
       <c r="L212">
+        <f>B212/ C212</f>
         <v>0</v>
       </c>
     </row>
@@ -11568,6 +11779,7 @@
         <v>1011</v>
       </c>
       <c r="L213">
+        <f>B213/ C213</f>
         <v>0</v>
       </c>
     </row>
@@ -11606,6 +11818,7 @@
         <v>1011</v>
       </c>
       <c r="L214">
+        <f>B214/ C214</f>
         <v>0</v>
       </c>
     </row>
@@ -11644,6 +11857,7 @@
         <v>1011</v>
       </c>
       <c r="L215">
+        <f>B215/ C215</f>
         <v>0</v>
       </c>
     </row>
@@ -11682,6 +11896,7 @@
         <v>1011</v>
       </c>
       <c r="L216">
+        <f>B216/ C216</f>
         <v>0</v>
       </c>
     </row>
@@ -11720,6 +11935,7 @@
         <v>1015</v>
       </c>
       <c r="L217">
+        <f>B217/ C217</f>
         <v>0</v>
       </c>
     </row>
@@ -11758,6 +11974,7 @@
         <v>1011</v>
       </c>
       <c r="L218">
+        <f>B218/ C218</f>
         <v>0</v>
       </c>
     </row>
@@ -11796,6 +12013,7 @@
         <v>1014</v>
       </c>
       <c r="L219">
+        <f>B219/ C219</f>
         <v>0</v>
       </c>
     </row>
@@ -11834,6 +12052,7 @@
         <v>1011</v>
       </c>
       <c r="L220">
+        <f>B220/ C220</f>
         <v>0</v>
       </c>
     </row>
@@ -11872,6 +12091,7 @@
         <v>1015</v>
       </c>
       <c r="L221">
+        <f>B221/ C221</f>
         <v>0</v>
       </c>
     </row>
@@ -11910,6 +12130,7 @@
         <v>1011</v>
       </c>
       <c r="L222">
+        <f>B222/ C222</f>
         <v>0</v>
       </c>
     </row>
@@ -11948,6 +12169,7 @@
         <v>1015</v>
       </c>
       <c r="L223">
+        <f>B223/ C223</f>
         <v>0</v>
       </c>
     </row>
@@ -11986,6 +12208,7 @@
         <v>1011</v>
       </c>
       <c r="L224">
+        <f>B224/ C224</f>
         <v>0</v>
       </c>
     </row>
@@ -12024,6 +12247,7 @@
         <v>1015</v>
       </c>
       <c r="L225">
+        <f>B225/ C225</f>
         <v>0</v>
       </c>
     </row>
@@ -12062,6 +12286,7 @@
         <v>1013</v>
       </c>
       <c r="L226">
+        <f>B226/ C226</f>
         <v>0</v>
       </c>
     </row>
@@ -12100,6 +12325,7 @@
         <v>1011</v>
       </c>
       <c r="L227">
+        <f>B227/ C227</f>
         <v>0</v>
       </c>
     </row>
@@ -12138,6 +12364,7 @@
         <v>1016</v>
       </c>
       <c r="L228">
+        <f>B228/ C228</f>
         <v>0</v>
       </c>
     </row>
@@ -12176,6 +12403,7 @@
         <v>1014</v>
       </c>
       <c r="L229">
+        <f>B229/ C229</f>
         <v>0</v>
       </c>
     </row>
@@ -12214,6 +12442,7 @@
         <v>1011</v>
       </c>
       <c r="L230">
+        <f>B230/ C230</f>
         <v>0</v>
       </c>
     </row>
@@ -12252,6 +12481,7 @@
         <v>1011</v>
       </c>
       <c r="L231">
+        <f>B231/ C231</f>
         <v>0</v>
       </c>
     </row>
@@ -12290,6 +12520,7 @@
         <v>1017</v>
       </c>
       <c r="L232">
+        <f>B232/ C232</f>
         <v>0</v>
       </c>
     </row>
@@ -12328,6 +12559,7 @@
         <v>1014</v>
       </c>
       <c r="L233">
+        <f>B233/ C233</f>
         <v>0</v>
       </c>
     </row>
@@ -12366,6 +12598,7 @@
         <v>1012</v>
       </c>
       <c r="L234">
+        <f>B234/ C234</f>
         <v>0</v>
       </c>
     </row>
@@ -12404,6 +12637,7 @@
         <v>1011</v>
       </c>
       <c r="L235">
+        <f>B235/ C235</f>
         <v>0</v>
       </c>
     </row>
@@ -12442,6 +12676,7 @@
         <v>1011</v>
       </c>
       <c r="L236">
+        <f>B236/ C236</f>
         <v>0</v>
       </c>
     </row>
@@ -12480,6 +12715,7 @@
         <v>1011</v>
       </c>
       <c r="L237">
+        <f>B237/ C237</f>
         <v>0</v>
       </c>
     </row>
@@ -12518,6 +12754,7 @@
         <v>1015</v>
       </c>
       <c r="L238">
+        <f>B238/ C238</f>
         <v>0</v>
       </c>
     </row>
@@ -12556,6 +12793,7 @@
         <v>1011</v>
       </c>
       <c r="L239">
+        <f>B239/ C239</f>
         <v>0</v>
       </c>
     </row>
@@ -12594,6 +12832,7 @@
         <v>1011</v>
       </c>
       <c r="L240">
+        <f>B240/ C240</f>
         <v>0</v>
       </c>
     </row>
@@ -12632,6 +12871,7 @@
         <v>1018</v>
       </c>
       <c r="L241">
+        <f>B241/ C241</f>
         <v>0</v>
       </c>
     </row>
@@ -12670,6 +12910,7 @@
         <v>1011</v>
       </c>
       <c r="L242">
+        <f>B242/ C242</f>
         <v>0</v>
       </c>
     </row>
@@ -12708,6 +12949,7 @@
         <v>1014</v>
       </c>
       <c r="L243">
+        <f>B243/ C243</f>
         <v>0</v>
       </c>
     </row>
@@ -12746,6 +12988,7 @@
         <v>1012</v>
       </c>
       <c r="L244">
+        <f>B244/ C244</f>
         <v>0</v>
       </c>
     </row>
@@ -12784,6 +13027,7 @@
         <v>1011</v>
       </c>
       <c r="L245">
+        <f>B245/ C245</f>
         <v>0</v>
       </c>
     </row>
@@ -12822,6 +13066,7 @@
         <v>1011</v>
       </c>
       <c r="L246">
+        <f>B246/ C246</f>
         <v>0</v>
       </c>
     </row>
@@ -12860,6 +13105,7 @@
         <v>1011</v>
       </c>
       <c r="L247">
+        <f>B247/ C247</f>
         <v>0</v>
       </c>
     </row>
@@ -12898,6 +13144,7 @@
         <v>1011</v>
       </c>
       <c r="L248">
+        <f>B248/ C248</f>
         <v>0</v>
       </c>
     </row>
@@ -12936,6 +13183,7 @@
         <v>1019</v>
       </c>
       <c r="L249">
+        <f>B249/ C249</f>
         <v>0</v>
       </c>
     </row>
@@ -12974,6 +13222,7 @@
         <v>1019</v>
       </c>
       <c r="L250">
+        <f>B250/ C250</f>
         <v>0</v>
       </c>
     </row>
@@ -13012,6 +13261,7 @@
         <v>1017</v>
       </c>
       <c r="L251">
+        <f>B251/ C251</f>
         <v>0</v>
       </c>
     </row>
@@ -13050,6 +13300,7 @@
         <v>1011</v>
       </c>
       <c r="L252">
+        <f>B252/ C252</f>
         <v>0</v>
       </c>
     </row>
@@ -13088,6 +13339,7 @@
         <v>1011</v>
       </c>
       <c r="L253">
+        <f>B253/ C253</f>
         <v>0</v>
       </c>
     </row>
@@ -13126,6 +13378,7 @@
         <v>1019</v>
       </c>
       <c r="L254">
+        <f>B254/ C254</f>
         <v>0</v>
       </c>
     </row>
@@ -13164,6 +13417,7 @@
         <v>1016</v>
       </c>
       <c r="L255">
+        <f>B255/ C255</f>
         <v>0</v>
       </c>
     </row>
@@ -13202,6 +13456,7 @@
         <v>1011</v>
       </c>
       <c r="L256">
+        <f>B256/ C256</f>
         <v>0</v>
       </c>
     </row>
@@ -13240,6 +13495,7 @@
         <v>1011</v>
       </c>
       <c r="L257">
+        <f>B257/ C257</f>
         <v>0</v>
       </c>
     </row>
@@ -13278,6 +13534,7 @@
         <v>1015</v>
       </c>
       <c r="L258">
+        <f>B258/ C258</f>
         <v>0</v>
       </c>
     </row>
@@ -13316,6 +13573,7 @@
         <v>1021</v>
       </c>
       <c r="L259">
+        <f>B259/ C259</f>
         <v>0</v>
       </c>
     </row>
@@ -13354,6 +13612,7 @@
         <v>1011</v>
       </c>
       <c r="L260">
+        <f>B260/ C260</f>
         <v>0</v>
       </c>
     </row>
@@ -13392,6 +13651,7 @@
         <v>1011</v>
       </c>
       <c r="L261">
+        <f>B261/ C261</f>
         <v>0</v>
       </c>
     </row>
@@ -13430,6 +13690,7 @@
         <v>1013</v>
       </c>
       <c r="L262">
+        <f>B262/ C262</f>
         <v>0</v>
       </c>
     </row>
@@ -13468,6 +13729,7 @@
         <v>1011</v>
       </c>
       <c r="L263">
+        <f>B263/ C263</f>
         <v>0</v>
       </c>
     </row>
@@ -13506,6 +13768,7 @@
         <v>1011</v>
       </c>
       <c r="L264">
+        <f>B264/ C264</f>
         <v>0</v>
       </c>
     </row>
@@ -13544,6 +13807,7 @@
         <v>1011</v>
       </c>
       <c r="L265">
+        <f>B265/ C265</f>
         <v>0</v>
       </c>
     </row>
@@ -13582,6 +13846,7 @@
         <v>1011</v>
       </c>
       <c r="L266">
+        <f>B266/ C266</f>
         <v>0</v>
       </c>
     </row>
@@ -13620,6 +13885,7 @@
         <v>1011</v>
       </c>
       <c r="L267">
+        <f>B267/ C267</f>
         <v>0</v>
       </c>
     </row>
@@ -13658,6 +13924,7 @@
         <v>1014</v>
       </c>
       <c r="L268">
+        <f>B268/ C268</f>
         <v>0</v>
       </c>
     </row>
@@ -13696,6 +13963,7 @@
         <v>1011</v>
       </c>
       <c r="L269">
+        <f>B269/ C269</f>
         <v>0</v>
       </c>
     </row>
@@ -13734,6 +14002,7 @@
         <v>1011</v>
       </c>
       <c r="L270">
+        <f>B270/ C270</f>
         <v>0</v>
       </c>
     </row>
@@ -13772,6 +14041,7 @@
         <v>1012</v>
       </c>
       <c r="L271">
+        <f>B271/ C271</f>
         <v>0</v>
       </c>
     </row>
@@ -13810,6 +14080,7 @@
         <v>1011</v>
       </c>
       <c r="L272">
+        <f>B272/ C272</f>
         <v>0</v>
       </c>
     </row>
@@ -13848,6 +14119,7 @@
         <v>1011</v>
       </c>
       <c r="L273">
+        <f>B273/ C273</f>
         <v>0</v>
       </c>
     </row>
@@ -13886,6 +14158,7 @@
         <v>1012</v>
       </c>
       <c r="L274">
+        <f>B274/ C274</f>
         <v>0</v>
       </c>
     </row>
@@ -13924,6 +14197,7 @@
         <v>1011</v>
       </c>
       <c r="L275">
+        <f>B275/ C275</f>
         <v>0</v>
       </c>
     </row>
@@ -13962,6 +14236,7 @@
         <v>1011</v>
       </c>
       <c r="L276">
+        <f>B276/ C276</f>
         <v>0</v>
       </c>
     </row>
@@ -14000,6 +14275,7 @@
         <v>1023</v>
       </c>
       <c r="L277">
+        <f>B277/ C277</f>
         <v>0</v>
       </c>
     </row>
@@ -14038,6 +14314,7 @@
         <v>1013</v>
       </c>
       <c r="L278">
+        <f>B278/ C278</f>
         <v>0</v>
       </c>
     </row>
@@ -14076,6 +14353,7 @@
         <v>1019</v>
       </c>
       <c r="L279">
+        <f>B279/ C279</f>
         <v>0</v>
       </c>
     </row>
@@ -14114,6 +14392,7 @@
         <v>1011</v>
       </c>
       <c r="L280">
+        <f>B280/ C280</f>
         <v>0</v>
       </c>
     </row>
@@ -14152,6 +14431,7 @@
         <v>1025</v>
       </c>
       <c r="L281">
+        <f>B281/ C281</f>
         <v>0</v>
       </c>
     </row>
@@ -14190,6 +14470,7 @@
         <v>1011</v>
       </c>
       <c r="L282">
+        <f>B282/ C282</f>
         <v>0</v>
       </c>
     </row>
@@ -14228,6 +14509,7 @@
         <v>1011</v>
       </c>
       <c r="L283">
+        <f>B283/ C283</f>
         <v>0</v>
       </c>
     </row>
@@ -14266,6 +14548,7 @@
         <v>1018</v>
       </c>
       <c r="L284">
+        <f>B284/ C284</f>
         <v>0</v>
       </c>
     </row>
@@ -14304,6 +14587,7 @@
         <v>1011</v>
       </c>
       <c r="L285">
+        <f>B285/ C285</f>
         <v>0</v>
       </c>
     </row>
@@ -14342,6 +14626,7 @@
         <v>1014</v>
       </c>
       <c r="L286">
+        <f>B286/ C286</f>
         <v>0</v>
       </c>
     </row>
@@ -14380,6 +14665,7 @@
         <v>1011</v>
       </c>
       <c r="L287">
+        <f>B287/ C287</f>
         <v>0</v>
       </c>
     </row>
@@ -14418,6 +14704,7 @@
         <v>1011</v>
       </c>
       <c r="L288">
+        <f>B288/ C288</f>
         <v>0</v>
       </c>
     </row>
@@ -14456,6 +14743,7 @@
         <v>1015</v>
       </c>
       <c r="L289">
+        <f>B289/ C289</f>
         <v>0</v>
       </c>
     </row>
@@ -14494,6 +14782,7 @@
         <v>1011</v>
       </c>
       <c r="L290">
+        <f>B290/ C290</f>
         <v>0</v>
       </c>
     </row>
@@ -14532,6 +14821,7 @@
         <v>1011</v>
       </c>
       <c r="L291">
+        <f>B291/ C291</f>
         <v>0</v>
       </c>
     </row>
@@ -14570,6 +14860,7 @@
         <v>1011</v>
       </c>
       <c r="L292">
+        <f>B292/ C292</f>
         <v>0</v>
       </c>
     </row>
@@ -14608,6 +14899,7 @@
         <v>1016</v>
       </c>
       <c r="L293">
+        <f>B293/ C293</f>
         <v>0</v>
       </c>
     </row>
@@ -14646,6 +14938,7 @@
         <v>1011</v>
       </c>
       <c r="L294">
+        <f>B294/ C294</f>
         <v>0</v>
       </c>
     </row>
@@ -14684,6 +14977,7 @@
         <v>1011</v>
       </c>
       <c r="L295">
+        <f>B295/ C295</f>
         <v>0</v>
       </c>
     </row>
@@ -14722,6 +15016,7 @@
         <v>1011</v>
       </c>
       <c r="L296">
+        <f>B296/ C296</f>
         <v>0</v>
       </c>
     </row>
@@ -14760,6 +15055,7 @@
         <v>1022</v>
       </c>
       <c r="L297">
+        <f>B297/ C297</f>
         <v>0</v>
       </c>
     </row>
@@ -14798,6 +15094,7 @@
         <v>1011</v>
       </c>
       <c r="L298">
+        <f>B298/ C298</f>
         <v>0</v>
       </c>
     </row>
@@ -14836,6 +15133,7 @@
         <v>1012</v>
       </c>
       <c r="L299">
+        <f>B299/ C299</f>
         <v>0</v>
       </c>
     </row>
@@ -14874,6 +15172,7 @@
         <v>1024</v>
       </c>
       <c r="L300">
+        <f>B300/ C300</f>
         <v>0</v>
       </c>
     </row>
@@ -14912,6 +15211,7 @@
         <v>1017</v>
       </c>
       <c r="L301">
+        <f>B301/ C301</f>
         <v>0</v>
       </c>
     </row>
@@ -14950,6 +15250,7 @@
         <v>1011</v>
       </c>
       <c r="L302">
+        <f>B302/ C302</f>
         <v>0</v>
       </c>
     </row>
@@ -14988,6 +15289,7 @@
         <v>1011</v>
       </c>
       <c r="L303">
+        <f>B303/ C303</f>
         <v>0</v>
       </c>
     </row>
@@ -15026,6 +15328,7 @@
         <v>1011</v>
       </c>
       <c r="L304">
+        <f>B304/ C304</f>
         <v>0</v>
       </c>
     </row>
@@ -15064,6 +15367,7 @@
         <v>1011</v>
       </c>
       <c r="L305">
+        <f>B305/ C305</f>
         <v>0</v>
       </c>
     </row>
@@ -15102,6 +15406,7 @@
         <v>1013</v>
       </c>
       <c r="L306">
+        <f>B306/ C306</f>
         <v>0</v>
       </c>
     </row>
@@ -15140,6 +15445,7 @@
         <v>1016</v>
       </c>
       <c r="L307">
+        <f>B307/ C307</f>
         <v>0</v>
       </c>
     </row>
@@ -15178,6 +15484,7 @@
         <v>1014</v>
       </c>
       <c r="L308">
+        <f>B308/ C308</f>
         <v>0</v>
       </c>
     </row>
@@ -15216,6 +15523,7 @@
         <v>1011</v>
       </c>
       <c r="L309">
+        <f>B309/ C309</f>
         <v>0</v>
       </c>
     </row>
@@ -15254,6 +15562,7 @@
         <v>1012</v>
       </c>
       <c r="L310">
+        <f>B310/ C310</f>
         <v>0</v>
       </c>
     </row>
@@ -15292,6 +15601,7 @@
         <v>1018</v>
       </c>
       <c r="L311">
+        <f>B311/ C311</f>
         <v>0</v>
       </c>
     </row>
@@ -15330,6 +15640,7 @@
         <v>1011</v>
       </c>
       <c r="L312">
+        <f>B312/ C312</f>
         <v>0</v>
       </c>
     </row>
@@ -15368,6 +15679,7 @@
         <v>1016</v>
       </c>
       <c r="L313">
+        <f>B313/ C313</f>
         <v>0</v>
       </c>
     </row>
@@ -15406,6 +15718,7 @@
         <v>1012</v>
       </c>
       <c r="L314">
+        <f>B314/ C314</f>
         <v>0</v>
       </c>
     </row>
@@ -15444,6 +15757,7 @@
         <v>1011</v>
       </c>
       <c r="L315">
+        <f>B315/ C315</f>
         <v>0</v>
       </c>
     </row>
@@ -15482,6 +15796,7 @@
         <v>1016</v>
       </c>
       <c r="L316">
+        <f>B316/ C316</f>
         <v>0</v>
       </c>
     </row>
@@ -15520,6 +15835,7 @@
         <v>1011</v>
       </c>
       <c r="L317">
+        <f>B317/ C317</f>
         <v>0</v>
       </c>
     </row>
@@ -15558,6 +15874,7 @@
         <v>1011</v>
       </c>
       <c r="L318">
+        <f>B318/ C318</f>
         <v>0</v>
       </c>
     </row>
@@ -15596,6 +15913,7 @@
         <v>1015</v>
       </c>
       <c r="L319">
+        <f>B319/ C319</f>
         <v>0</v>
       </c>
     </row>
@@ -15634,6 +15952,7 @@
         <v>1016</v>
       </c>
       <c r="L320">
+        <f>B320/ C320</f>
         <v>0</v>
       </c>
     </row>
@@ -15672,6 +15991,7 @@
         <v>1017</v>
       </c>
       <c r="L321">
+        <f>B321/ C321</f>
         <v>0</v>
       </c>
     </row>
@@ -15710,6 +16030,7 @@
         <v>1024</v>
       </c>
       <c r="L322">
+        <f>B322/ C322</f>
         <v>0</v>
       </c>
     </row>
@@ -15748,6 +16069,7 @@
         <v>1015</v>
       </c>
       <c r="L323">
+        <f>B323/ C323</f>
         <v>0</v>
       </c>
     </row>
@@ -15786,6 +16108,7 @@
         <v>1015</v>
       </c>
       <c r="L324">
+        <f>B324/ C324</f>
         <v>0</v>
       </c>
     </row>
@@ -15824,6 +16147,7 @@
         <v>1011</v>
       </c>
       <c r="L325">
+        <f>B325/ C325</f>
         <v>0</v>
       </c>
     </row>
@@ -15862,6 +16186,7 @@
         <v>1017</v>
       </c>
       <c r="L326">
+        <f>B326/ C326</f>
         <v>0</v>
       </c>
     </row>
@@ -15900,6 +16225,7 @@
         <v>1017</v>
       </c>
       <c r="L327">
+        <f>B327/ C327</f>
         <v>0</v>
       </c>
     </row>
@@ -15938,6 +16264,7 @@
         <v>1011</v>
       </c>
       <c r="L328">
+        <f>B328/ C328</f>
         <v>0</v>
       </c>
     </row>
@@ -15976,6 +16303,7 @@
         <v>1014</v>
       </c>
       <c r="L329">
+        <f>B329/ C329</f>
         <v>0</v>
       </c>
     </row>
@@ -16014,6 +16342,7 @@
         <v>1023</v>
       </c>
       <c r="L330">
+        <f>B330/ C330</f>
         <v>0</v>
       </c>
     </row>
@@ -16052,6 +16381,7 @@
         <v>1011</v>
       </c>
       <c r="L331">
+        <f>B331/ C331</f>
         <v>0</v>
       </c>
     </row>
@@ -16090,6 +16420,7 @@
         <v>1014</v>
       </c>
       <c r="L332">
+        <f>B332/ C332</f>
         <v>0</v>
       </c>
     </row>
@@ -16128,6 +16459,7 @@
         <v>1016</v>
       </c>
       <c r="L333">
+        <f>B333/ C333</f>
         <v>0</v>
       </c>
     </row>
@@ -16166,6 +16498,7 @@
         <v>1011</v>
       </c>
       <c r="L334">
+        <f>B334/ C334</f>
         <v>0</v>
       </c>
     </row>
@@ -16204,6 +16537,7 @@
         <v>1015</v>
       </c>
       <c r="L335">
+        <f>B335/ C335</f>
         <v>0</v>
       </c>
     </row>
@@ -16242,6 +16576,7 @@
         <v>1011</v>
       </c>
       <c r="L336">
+        <f>B336/ C336</f>
         <v>0</v>
       </c>
     </row>
@@ -16280,6 +16615,7 @@
         <v>1011</v>
       </c>
       <c r="L337">
+        <f>B337/ C337</f>
         <v>0</v>
       </c>
     </row>
@@ -16318,6 +16654,7 @@
         <v>1013</v>
       </c>
       <c r="L338">
+        <f>B338/ C338</f>
         <v>0</v>
       </c>
     </row>
@@ -16356,6 +16693,7 @@
         <v>1011</v>
       </c>
       <c r="L339">
+        <f>B339/ C339</f>
         <v>0</v>
       </c>
     </row>
@@ -16394,6 +16732,7 @@
         <v>1017</v>
       </c>
       <c r="L340">
+        <f>B340/ C340</f>
         <v>0</v>
       </c>
     </row>
@@ -16432,6 +16771,7 @@
         <v>1011</v>
       </c>
       <c r="L341">
+        <f>B341/ C341</f>
         <v>0</v>
       </c>
     </row>
@@ -16470,6 +16810,7 @@
         <v>1017</v>
       </c>
       <c r="L342">
+        <f>B342/ C342</f>
         <v>0</v>
       </c>
     </row>
@@ -16508,6 +16849,7 @@
         <v>1017</v>
       </c>
       <c r="L343">
+        <f>B343/ C343</f>
         <v>0</v>
       </c>
     </row>
@@ -16546,6 +16888,7 @@
         <v>1012</v>
       </c>
       <c r="L344">
+        <f>B344/ C344</f>
         <v>0</v>
       </c>
     </row>
@@ -16584,6 +16927,7 @@
         <v>1011</v>
       </c>
       <c r="L345">
+        <f>B345/ C345</f>
         <v>0</v>
       </c>
     </row>
@@ -16622,6 +16966,7 @@
         <v>1015</v>
       </c>
       <c r="L346">
+        <f>B346/ C346</f>
         <v>0</v>
       </c>
     </row>
@@ -16660,6 +17005,7 @@
         <v>1011</v>
       </c>
       <c r="L347">
+        <f>B347/ C347</f>
         <v>0</v>
       </c>
     </row>
@@ -16698,6 +17044,7 @@
         <v>1011</v>
       </c>
       <c r="L348">
+        <f>B348/ C348</f>
         <v>0</v>
       </c>
     </row>
@@ -16736,6 +17083,7 @@
         <v>1019</v>
       </c>
       <c r="L349">
+        <f>B349/ C349</f>
         <v>0</v>
       </c>
     </row>
@@ -16774,6 +17122,7 @@
         <v>1011</v>
       </c>
       <c r="L350">
+        <f>B350/ C350</f>
         <v>0</v>
       </c>
     </row>
@@ -16812,6 +17161,7 @@
         <v>1013</v>
       </c>
       <c r="L351">
+        <f>B351/ C351</f>
         <v>0</v>
       </c>
     </row>
@@ -16850,6 +17200,7 @@
         <v>1022</v>
       </c>
       <c r="L352">
+        <f>B352/ C352</f>
         <v>0</v>
       </c>
     </row>
@@ -16888,6 +17239,7 @@
         <v>1011</v>
       </c>
       <c r="L353">
+        <f>B353/ C353</f>
         <v>0</v>
       </c>
     </row>
@@ -16926,6 +17278,7 @@
         <v>1011</v>
       </c>
       <c r="L354">
+        <f>B354/ C354</f>
         <v>0</v>
       </c>
     </row>
@@ -16964,6 +17317,7 @@
         <v>1014</v>
       </c>
       <c r="L355">
+        <f>B355/ C355</f>
         <v>0</v>
       </c>
     </row>
@@ -17002,6 +17356,7 @@
         <v>1011</v>
       </c>
       <c r="L356">
+        <f>B356/ C356</f>
         <v>0</v>
       </c>
     </row>
@@ -17040,6 +17395,7 @@
         <v>1011</v>
       </c>
       <c r="L357">
+        <f>B357/ C357</f>
         <v>0</v>
       </c>
     </row>
@@ -17078,6 +17434,7 @@
         <v>1017</v>
       </c>
       <c r="L358">
+        <f>B358/ C358</f>
         <v>0</v>
       </c>
     </row>
@@ -17116,6 +17473,7 @@
         <v>1015</v>
       </c>
       <c r="L359">
+        <f>B359/ C359</f>
         <v>0</v>
       </c>
     </row>
@@ -17154,6 +17512,7 @@
         <v>1016</v>
       </c>
       <c r="L360">
+        <f>B360/ C360</f>
         <v>0</v>
       </c>
     </row>
@@ -17192,6 +17551,7 @@
         <v>1012</v>
       </c>
       <c r="L361">
+        <f>B361/ C361</f>
         <v>0</v>
       </c>
     </row>
@@ -17230,6 +17590,7 @@
         <v>1011</v>
       </c>
       <c r="L362">
+        <f>B362/ C362</f>
         <v>0</v>
       </c>
     </row>
@@ -17268,6 +17629,7 @@
         <v>1017</v>
       </c>
       <c r="L363">
+        <f>B363/ C363</f>
         <v>0</v>
       </c>
     </row>
@@ -17306,6 +17668,7 @@
         <v>1015</v>
       </c>
       <c r="L364">
+        <f>B364/ C364</f>
         <v>0</v>
       </c>
     </row>
@@ -17344,6 +17707,7 @@
         <v>1011</v>
       </c>
       <c r="L365">
+        <f>B365/ C365</f>
         <v>0</v>
       </c>
     </row>
@@ -17382,6 +17746,7 @@
         <v>1011</v>
       </c>
       <c r="L366">
+        <f>B366/ C366</f>
         <v>0</v>
       </c>
     </row>
@@ -17420,6 +17785,7 @@
         <v>1014</v>
       </c>
       <c r="L367">
+        <f>B367/ C367</f>
         <v>0</v>
       </c>
     </row>
@@ -17458,6 +17824,7 @@
         <v>1023</v>
       </c>
       <c r="L368">
+        <f>B368/ C368</f>
         <v>0</v>
       </c>
     </row>
@@ -17496,6 +17863,7 @@
         <v>1019</v>
       </c>
       <c r="L369">
+        <f>B369/ C369</f>
         <v>0</v>
       </c>
     </row>
@@ -17534,6 +17902,7 @@
         <v>1011</v>
       </c>
       <c r="L370">
+        <f>B370/ C370</f>
         <v>0</v>
       </c>
     </row>
@@ -17572,6 +17941,7 @@
         <v>1019</v>
       </c>
       <c r="L371">
+        <f>B371/ C371</f>
         <v>0</v>
       </c>
     </row>
@@ -17610,6 +17980,7 @@
         <v>1017</v>
       </c>
       <c r="L372">
+        <f>B372/ C372</f>
         <v>0</v>
       </c>
     </row>
@@ -17648,6 +18019,7 @@
         <v>1011</v>
       </c>
       <c r="L373">
+        <f>B373/ C373</f>
         <v>0</v>
       </c>
     </row>
@@ -17686,6 +18058,7 @@
         <v>1011</v>
       </c>
       <c r="L374">
+        <f>B374/ C374</f>
         <v>0</v>
       </c>
     </row>
@@ -17724,6 +18097,7 @@
         <v>1017</v>
       </c>
       <c r="L375">
+        <f>B375/ C375</f>
         <v>0</v>
       </c>
     </row>
@@ -17762,6 +18136,7 @@
         <v>1011</v>
       </c>
       <c r="L376">
+        <f>B376/ C376</f>
         <v>0</v>
       </c>
     </row>
@@ -17800,6 +18175,7 @@
         <v>1016</v>
       </c>
       <c r="L377">
+        <f>B377/ C377</f>
         <v>0</v>
       </c>
     </row>
@@ -17838,6 +18214,7 @@
         <v>1021</v>
       </c>
       <c r="L378">
+        <f>B378/ C378</f>
         <v>0</v>
       </c>
     </row>
@@ -17876,6 +18253,7 @@
         <v>1026</v>
       </c>
       <c r="L379">
+        <f>B379/ C379</f>
         <v>0</v>
       </c>
     </row>
@@ -17914,6 +18292,7 @@
         <v>1012</v>
       </c>
       <c r="L380">
+        <f>B380/ C380</f>
         <v>0</v>
       </c>
     </row>
@@ -17952,6 +18331,7 @@
         <v>1011</v>
       </c>
       <c r="L381">
+        <f>B381/ C381</f>
         <v>0</v>
       </c>
     </row>
@@ -17990,6 +18370,7 @@
         <v>1015</v>
       </c>
       <c r="L382">
+        <f>B382/ C382</f>
         <v>0</v>
       </c>
     </row>
@@ -18028,6 +18409,7 @@
         <v>1011</v>
       </c>
       <c r="L383">
+        <f>B383/ C383</f>
         <v>0</v>
       </c>
     </row>
@@ -18066,6 +18448,7 @@
         <v>1012</v>
       </c>
       <c r="L384">
+        <f>B384/ C384</f>
         <v>0</v>
       </c>
     </row>
@@ -18104,6 +18487,7 @@
         <v>1027</v>
       </c>
       <c r="L385">
+        <f>B385/ C385</f>
         <v>0</v>
       </c>
     </row>
@@ -18142,6 +18526,7 @@
         <v>1013</v>
       </c>
       <c r="L386">
+        <f>B386/ C386</f>
         <v>0</v>
       </c>
     </row>
@@ -18180,6 +18565,7 @@
         <v>1011</v>
       </c>
       <c r="L387">
+        <f>B387/ C387</f>
         <v>0</v>
       </c>
     </row>
@@ -18218,6 +18604,7 @@
         <v>1011</v>
       </c>
       <c r="L388">
+        <f>B388/ C388</f>
         <v>0</v>
       </c>
     </row>
@@ -18256,6 +18643,7 @@
         <v>1011</v>
       </c>
       <c r="L389">
+        <f>B389/ C389</f>
         <v>0</v>
       </c>
     </row>
@@ -18294,6 +18682,7 @@
         <v>1012</v>
       </c>
       <c r="L390">
+        <f>B390/ C390</f>
         <v>0</v>
       </c>
     </row>
@@ -18332,6 +18721,7 @@
         <v>1011</v>
       </c>
       <c r="L391">
+        <f>B391/ C391</f>
         <v>0</v>
       </c>
     </row>
@@ -18370,6 +18760,7 @@
         <v>1011</v>
       </c>
       <c r="L392">
+        <f>B392/ C392</f>
         <v>0</v>
       </c>
     </row>
@@ -18408,6 +18799,7 @@
         <v>1015</v>
       </c>
       <c r="L393">
+        <f>B393/ C393</f>
         <v>0</v>
       </c>
     </row>
@@ -18446,6 +18838,7 @@
         <v>1011</v>
       </c>
       <c r="L394">
+        <f>B394/ C394</f>
         <v>0</v>
       </c>
     </row>
@@ -18484,6 +18877,7 @@
         <v>1012</v>
       </c>
       <c r="L395">
+        <f>B395/ C395</f>
         <v>0</v>
       </c>
     </row>
@@ -18522,6 +18916,7 @@
         <v>1011</v>
       </c>
       <c r="L396">
+        <f>B396/ C396</f>
         <v>0</v>
       </c>
     </row>
@@ -18560,6 +18955,7 @@
         <v>1011</v>
       </c>
       <c r="L397">
+        <f>B397/ C397</f>
         <v>0</v>
       </c>
     </row>
@@ -18598,6 +18994,7 @@
         <v>1011</v>
       </c>
       <c r="L398">
+        <f>B398/ C398</f>
         <v>0</v>
       </c>
     </row>
@@ -18636,6 +19033,7 @@
         <v>1011</v>
       </c>
       <c r="L399">
+        <f>B399/ C399</f>
         <v>0</v>
       </c>
     </row>
@@ -18674,6 +19072,7 @@
         <v>1015</v>
       </c>
       <c r="L400">
+        <f>B400/ C400</f>
         <v>0</v>
       </c>
     </row>
@@ -18712,6 +19111,7 @@
         <v>1017</v>
       </c>
       <c r="L401">
+        <f>B401/ C401</f>
         <v>0</v>
       </c>
     </row>
@@ -18750,6 +19150,7 @@
         <v>1011</v>
       </c>
       <c r="L402">
+        <f>B402/ C402</f>
         <v>0</v>
       </c>
     </row>
@@ -18788,6 +19189,7 @@
         <v>1011</v>
       </c>
       <c r="L403">
+        <f>B403/ C403</f>
         <v>0</v>
       </c>
     </row>
@@ -18826,6 +19228,7 @@
         <v>1025</v>
       </c>
       <c r="L404">
+        <f>B404/ C404</f>
         <v>0</v>
       </c>
     </row>
@@ -18864,6 +19267,7 @@
         <v>1015</v>
       </c>
       <c r="L405">
+        <f>B405/ C405</f>
         <v>0</v>
       </c>
     </row>
@@ -18902,6 +19306,7 @@
         <v>1011</v>
       </c>
       <c r="L406">
+        <f>B406/ C406</f>
         <v>0</v>
       </c>
     </row>
@@ -18940,6 +19345,7 @@
         <v>1013</v>
       </c>
       <c r="L407">
+        <f>B407/ C407</f>
         <v>0</v>
       </c>
     </row>
@@ -18978,6 +19384,7 @@
         <v>1017</v>
       </c>
       <c r="L408">
+        <f>B408/ C408</f>
         <v>0</v>
       </c>
     </row>
@@ -19016,6 +19423,7 @@
         <v>1011</v>
       </c>
       <c r="L409">
+        <f>B409/ C409</f>
         <v>0</v>
       </c>
     </row>
@@ -19054,6 +19462,7 @@
         <v>1013</v>
       </c>
       <c r="L410">
+        <f>B410/ C410</f>
         <v>0</v>
       </c>
     </row>
@@ -19092,6 +19501,7 @@
         <v>1012</v>
       </c>
       <c r="L411">
+        <f>B411/ C411</f>
         <v>0</v>
       </c>
     </row>
@@ -19130,6 +19540,7 @@
         <v>1011</v>
       </c>
       <c r="L412">
+        <f>B412/ C412</f>
         <v>0</v>
       </c>
     </row>
@@ -19168,6 +19579,7 @@
         <v>1011</v>
       </c>
       <c r="L413">
+        <f>B413/ C413</f>
         <v>0</v>
       </c>
     </row>
@@ -19206,6 +19618,7 @@
         <v>1019</v>
       </c>
       <c r="L414">
+        <f>B414/ C414</f>
         <v>0</v>
       </c>
     </row>
@@ -19244,6 +19657,7 @@
         <v>1011</v>
       </c>
       <c r="L415">
+        <f>B415/ C415</f>
         <v>0</v>
       </c>
     </row>
@@ -19282,6 +19696,7 @@
         <v>1013</v>
       </c>
       <c r="L416">
+        <f>B416/ C416</f>
         <v>0</v>
       </c>
     </row>
@@ -19320,6 +19735,7 @@
         <v>1012</v>
       </c>
       <c r="L417">
+        <f>B417/ C417</f>
         <v>0</v>
       </c>
     </row>
@@ -19358,6 +19774,7 @@
         <v>1016</v>
       </c>
       <c r="L418">
+        <f>B418/ C418</f>
         <v>0</v>
       </c>
     </row>
@@ -19396,6 +19813,7 @@
         <v>1011</v>
       </c>
       <c r="L419">
+        <f>B419/ C419</f>
         <v>0</v>
       </c>
     </row>
@@ -19434,6 +19852,7 @@
         <v>1015</v>
       </c>
       <c r="L420">
+        <f>B420/ C420</f>
         <v>0</v>
       </c>
     </row>
@@ -19472,6 +19891,7 @@
         <v>1011</v>
       </c>
       <c r="L421">
+        <f>B421/ C421</f>
         <v>0</v>
       </c>
     </row>
@@ -19510,6 +19930,7 @@
         <v>1012</v>
       </c>
       <c r="L422">
+        <f>B422/ C422</f>
         <v>0</v>
       </c>
     </row>
@@ -19548,6 +19969,7 @@
         <v>1011</v>
       </c>
       <c r="L423">
+        <f>B423/ C423</f>
         <v>0</v>
       </c>
     </row>
@@ -19586,6 +20008,7 @@
         <v>1011</v>
       </c>
       <c r="L424">
+        <f>B424/ C424</f>
         <v>0</v>
       </c>
     </row>
@@ -19624,6 +20047,7 @@
         <v>1011</v>
       </c>
       <c r="L425">
+        <f>B425/ C425</f>
         <v>0</v>
       </c>
     </row>
@@ -19662,6 +20086,7 @@
         <v>1011</v>
       </c>
       <c r="L426">
+        <f>B426/ C426</f>
         <v>0</v>
       </c>
     </row>
@@ -19700,6 +20125,7 @@
         <v>1011</v>
       </c>
       <c r="L427">
+        <f>B427/ C427</f>
         <v>0</v>
       </c>
     </row>
@@ -19738,6 +20164,7 @@
         <v>1011</v>
       </c>
       <c r="L428">
+        <f>B428/ C428</f>
         <v>0</v>
       </c>
     </row>
@@ -19776,6 +20203,7 @@
         <v>1011</v>
       </c>
       <c r="L429">
+        <f>B429/ C429</f>
         <v>0</v>
       </c>
     </row>
@@ -19814,6 +20242,7 @@
         <v>1019</v>
       </c>
       <c r="L430">
+        <f>B430/ C430</f>
         <v>0</v>
       </c>
     </row>
@@ -19852,6 +20281,7 @@
         <v>1015</v>
       </c>
       <c r="L431">
+        <f>B431/ C431</f>
         <v>0</v>
       </c>
     </row>
@@ -19890,6 +20320,7 @@
         <v>1011</v>
       </c>
       <c r="L432">
+        <f>B432/ C432</f>
         <v>0</v>
       </c>
     </row>
@@ -19928,6 +20359,7 @@
         <v>1011</v>
       </c>
       <c r="L433">
+        <f>B433/ C433</f>
         <v>0</v>
       </c>
     </row>
@@ -19966,6 +20398,7 @@
         <v>1017</v>
       </c>
       <c r="L434">
+        <f>B434/ C434</f>
         <v>0</v>
       </c>
     </row>
@@ -20004,6 +20437,7 @@
         <v>1019</v>
       </c>
       <c r="L435">
+        <f>B435/ C435</f>
         <v>0</v>
       </c>
     </row>
@@ -20042,6 +20476,7 @@
         <v>1011</v>
       </c>
       <c r="L436">
+        <f>B436/ C436</f>
         <v>0</v>
       </c>
     </row>
@@ -20080,6 +20515,7 @@
         <v>1014</v>
       </c>
       <c r="L437">
+        <f>B437/ C437</f>
         <v>0</v>
       </c>
     </row>
@@ -20118,6 +20554,7 @@
         <v>1011</v>
       </c>
       <c r="L438">
+        <f>B438/ C438</f>
         <v>0</v>
       </c>
     </row>
@@ -20156,6 +20593,7 @@
         <v>1011</v>
       </c>
       <c r="L439">
+        <f>B439/ C439</f>
         <v>0</v>
       </c>
     </row>
@@ -20194,6 +20632,7 @@
         <v>1011</v>
       </c>
       <c r="L440">
+        <f>B440/ C440</f>
         <v>0</v>
       </c>
     </row>
@@ -20232,6 +20671,7 @@
         <v>1015</v>
       </c>
       <c r="L441">
+        <f>B441/ C441</f>
         <v>0</v>
       </c>
     </row>
@@ -20270,6 +20710,7 @@
         <v>1017</v>
       </c>
       <c r="L442">
+        <f>B442/ C442</f>
         <v>0</v>
       </c>
     </row>
@@ -20308,6 +20749,7 @@
         <v>1017</v>
       </c>
       <c r="L443">
+        <f>B443/ C443</f>
         <v>0</v>
       </c>
     </row>
@@ -20346,6 +20788,7 @@
         <v>1013</v>
       </c>
       <c r="L444">
+        <f>B444/ C444</f>
         <v>0</v>
       </c>
     </row>
@@ -20384,6 +20827,7 @@
         <v>1017</v>
       </c>
       <c r="L445">
+        <f>B445/ C445</f>
         <v>0</v>
       </c>
     </row>
@@ -20422,6 +20866,7 @@
         <v>1011</v>
       </c>
       <c r="L446">
+        <f>B446/ C446</f>
         <v>0</v>
       </c>
     </row>
@@ -20460,6 +20905,7 @@
         <v>1011</v>
       </c>
       <c r="L447">
+        <f>B447/ C447</f>
         <v>0</v>
       </c>
     </row>
@@ -20498,6 +20944,7 @@
         <v>1014</v>
       </c>
       <c r="L448">
+        <f>B448/ C448</f>
         <v>0</v>
       </c>
     </row>
@@ -20536,6 +20983,7 @@
         <v>1012</v>
       </c>
       <c r="L449">
+        <f>B449/ C449</f>
         <v>0</v>
       </c>
     </row>
@@ -20574,6 +21022,7 @@
         <v>1011</v>
       </c>
       <c r="L450">
+        <f>B450/ C450</f>
         <v>0</v>
       </c>
     </row>
@@ -20612,6 +21061,7 @@
         <v>1028</v>
       </c>
       <c r="L451">
+        <f>B451/ C451</f>
         <v>0</v>
       </c>
     </row>
@@ -20650,6 +21100,7 @@
         <v>1011</v>
       </c>
       <c r="L452">
+        <f>B452/ C452</f>
         <v>0</v>
       </c>
     </row>
@@ -20688,6 +21139,7 @@
         <v>1011</v>
       </c>
       <c r="L453">
+        <f>B453/ C453</f>
         <v>0</v>
       </c>
     </row>
@@ -20726,6 +21178,7 @@
         <v>1013</v>
       </c>
       <c r="L454">
+        <f>B454/ C454</f>
         <v>0</v>
       </c>
     </row>
@@ -20764,6 +21217,7 @@
         <v>1011</v>
       </c>
       <c r="L455">
+        <f>B455/ C455</f>
         <v>0</v>
       </c>
     </row>
@@ -20802,6 +21256,7 @@
         <v>1013</v>
       </c>
       <c r="L456">
+        <f>B456/ C456</f>
         <v>0</v>
       </c>
     </row>
@@ -20840,6 +21295,7 @@
         <v>1011</v>
       </c>
       <c r="L457">
+        <f>B457/ C457</f>
         <v>0</v>
       </c>
     </row>
@@ -20878,6 +21334,7 @@
         <v>1016</v>
       </c>
       <c r="L458">
+        <f>B458/ C458</f>
         <v>0</v>
       </c>
     </row>
@@ -20916,6 +21373,7 @@
         <v>1015</v>
       </c>
       <c r="L459">
+        <f>B459/ C459</f>
         <v>0</v>
       </c>
     </row>
@@ -20954,6 +21412,7 @@
         <v>1011</v>
       </c>
       <c r="L460">
+        <f>B460/ C460</f>
         <v>0</v>
       </c>
     </row>
@@ -20992,6 +21451,7 @@
         <v>1011</v>
       </c>
       <c r="L461">
+        <f>B461/ C461</f>
         <v>0</v>
       </c>
     </row>
@@ -21030,6 +21490,7 @@
         <v>1013</v>
       </c>
       <c r="L462">
+        <f>B462/ C462</f>
         <v>0</v>
       </c>
     </row>
@@ -21068,6 +21529,7 @@
         <v>1013</v>
       </c>
       <c r="L463">
+        <f>B463/ C463</f>
         <v>0</v>
       </c>
     </row>
@@ -21106,6 +21568,7 @@
         <v>1011</v>
       </c>
       <c r="L464">
+        <f>B464/ C464</f>
         <v>0</v>
       </c>
     </row>
@@ -21144,6 +21607,7 @@
         <v>1011</v>
       </c>
       <c r="L465">
+        <f>B465/ C465</f>
         <v>0</v>
       </c>
     </row>
@@ -21182,6 +21646,7 @@
         <v>1015</v>
       </c>
       <c r="L466">
+        <f>B466/ C466</f>
         <v>0</v>
       </c>
     </row>
@@ -21220,6 +21685,7 @@
         <v>1017</v>
       </c>
       <c r="L467">
+        <f>B467/ C467</f>
         <v>0</v>
       </c>
     </row>
@@ -21258,6 +21724,7 @@
         <v>1012</v>
       </c>
       <c r="L468">
+        <f>B468/ C468</f>
         <v>0</v>
       </c>
     </row>
@@ -21296,6 +21763,7 @@
         <v>1011</v>
       </c>
       <c r="L469">
+        <f>B469/ C469</f>
         <v>0</v>
       </c>
     </row>
@@ -21334,6 +21802,7 @@
         <v>1021</v>
       </c>
       <c r="L470">
+        <f>B470/ C470</f>
         <v>0</v>
       </c>
     </row>
@@ -21372,6 +21841,7 @@
         <v>1011</v>
       </c>
       <c r="L471">
+        <f>B471/ C471</f>
         <v>0</v>
       </c>
     </row>
@@ -21410,6 +21880,7 @@
         <v>1011</v>
       </c>
       <c r="L472">
+        <f>B472/ C472</f>
         <v>0</v>
       </c>
     </row>
@@ -21448,6 +21919,7 @@
         <v>1014</v>
       </c>
       <c r="L473">
+        <f>B473/ C473</f>
         <v>0</v>
       </c>
     </row>
@@ -21486,6 +21958,7 @@
         <v>1011</v>
       </c>
       <c r="L474">
+        <f>B474/ C474</f>
         <v>0</v>
       </c>
     </row>
@@ -21524,6 +21997,7 @@
         <v>1011</v>
       </c>
       <c r="L475">
+        <f>B475/ C475</f>
         <v>0</v>
       </c>
     </row>
@@ -21562,6 +22036,7 @@
         <v>1012</v>
       </c>
       <c r="L476">
+        <f>B476/ C476</f>
         <v>0</v>
       </c>
     </row>
@@ -21600,6 +22075,7 @@
         <v>1017</v>
       </c>
       <c r="L477">
+        <f>B477/ C477</f>
         <v>0</v>
       </c>
     </row>
@@ -21638,6 +22114,7 @@
         <v>1011</v>
       </c>
       <c r="L478">
+        <f>B478/ C478</f>
         <v>0</v>
       </c>
     </row>
@@ -21676,6 +22153,7 @@
         <v>1011</v>
       </c>
       <c r="L479">
+        <f>B479/ C479</f>
         <v>0</v>
       </c>
     </row>
@@ -21714,6 +22192,7 @@
         <v>1011</v>
       </c>
       <c r="L480">
+        <f>B480/ C480</f>
         <v>0</v>
       </c>
     </row>
@@ -21752,6 +22231,7 @@
         <v>1011</v>
       </c>
       <c r="L481">
+        <f>B481/ C481</f>
         <v>0</v>
       </c>
     </row>
@@ -21790,6 +22270,7 @@
         <v>1016</v>
       </c>
       <c r="L482">
+        <f>B482/ C482</f>
         <v>0</v>
       </c>
     </row>
@@ -21828,6 +22309,7 @@
         <v>1011</v>
       </c>
       <c r="L483">
+        <f>B483/ C483</f>
         <v>0</v>
       </c>
     </row>
@@ -21866,6 +22348,7 @@
         <v>1011</v>
       </c>
       <c r="L484">
+        <f>B484/ C484</f>
         <v>0</v>
       </c>
     </row>
@@ -21904,6 +22387,7 @@
         <v>1017</v>
       </c>
       <c r="L485">
+        <f>B485/ C485</f>
         <v>0</v>
       </c>
     </row>
@@ -21942,6 +22426,7 @@
         <v>1012</v>
       </c>
       <c r="L486">
+        <f>B486/ C486</f>
         <v>0</v>
       </c>
     </row>
@@ -21980,6 +22465,7 @@
         <v>1021</v>
       </c>
       <c r="L487">
+        <f>B487/ C487</f>
         <v>0</v>
       </c>
     </row>
@@ -22018,6 +22504,7 @@
         <v>1011</v>
       </c>
       <c r="L488">
+        <f>B488/ C488</f>
         <v>0</v>
       </c>
     </row>
@@ -22056,6 +22543,7 @@
         <v>1012</v>
       </c>
       <c r="L489">
+        <f>B489/ C489</f>
         <v>0</v>
       </c>
     </row>
@@ -22094,6 +22582,7 @@
         <v>1011</v>
       </c>
       <c r="L490">
+        <f>B490/ C490</f>
         <v>0</v>
       </c>
     </row>
@@ -22132,6 +22621,7 @@
         <v>1011</v>
       </c>
       <c r="L491">
+        <f>B491/ C491</f>
         <v>0</v>
       </c>
     </row>
@@ -22170,6 +22660,7 @@
         <v>1015</v>
       </c>
       <c r="L492">
+        <f>B492/ C492</f>
         <v>0</v>
       </c>
     </row>
@@ -22208,6 +22699,7 @@
         <v>1011</v>
       </c>
       <c r="L493">
+        <f>B493/ C493</f>
         <v>0</v>
       </c>
     </row>
@@ -22246,6 +22738,7 @@
         <v>1013</v>
       </c>
       <c r="L494">
+        <f>B494/ C494</f>
         <v>0</v>
       </c>
     </row>
@@ -22284,6 +22777,7 @@
         <v>1016</v>
       </c>
       <c r="L495">
+        <f>B495/ C495</f>
         <v>0</v>
       </c>
     </row>
@@ -22322,6 +22816,7 @@
         <v>1013</v>
       </c>
       <c r="L496">
+        <f>B496/ C496</f>
         <v>0</v>
       </c>
     </row>
@@ -22360,6 +22855,7 @@
         <v>1014</v>
       </c>
       <c r="L497">
+        <f>B497/ C497</f>
         <v>0</v>
       </c>
     </row>
@@ -22398,6 +22894,7 @@
         <v>1015</v>
       </c>
       <c r="L498">
+        <f>B498/ C498</f>
         <v>0</v>
       </c>
     </row>
@@ -22436,6 +22933,7 @@
         <v>1012</v>
       </c>
       <c r="L499">
+        <f>B499/ C499</f>
         <v>0</v>
       </c>
     </row>
@@ -22474,6 +22972,7 @@
         <v>1011</v>
       </c>
       <c r="L500">
+        <f>B500/ C500</f>
         <v>0</v>
       </c>
     </row>
@@ -22512,6 +23011,7 @@
         <v>1011</v>
       </c>
       <c r="L501">
+        <f>B501/ C501</f>
         <v>0</v>
       </c>
     </row>
@@ -22550,6 +23050,7 @@
         <v>1011</v>
       </c>
       <c r="L502">
+        <f>B502/ C502</f>
         <v>0</v>
       </c>
     </row>
@@ -22588,6 +23089,7 @@
         <v>1013</v>
       </c>
       <c r="L503">
+        <f>B503/ C503</f>
         <v>0</v>
       </c>
     </row>
@@ -22626,6 +23128,7 @@
         <v>1016</v>
       </c>
       <c r="L504">
+        <f>B504/ C504</f>
         <v>0</v>
       </c>
     </row>
@@ -22664,6 +23167,7 @@
         <v>1011</v>
       </c>
       <c r="L505">
+        <f>B505/ C505</f>
         <v>0</v>
       </c>
     </row>
@@ -22702,6 +23206,7 @@
         <v>1019</v>
       </c>
       <c r="L506">
+        <f>B506/ C506</f>
         <v>0</v>
       </c>
     </row>
@@ -22740,6 +23245,7 @@
         <v>1011</v>
       </c>
       <c r="L507">
+        <f>B507/ C507</f>
         <v>0</v>
       </c>
     </row>
@@ -22778,6 +23284,7 @@
         <v>1011</v>
       </c>
       <c r="L508">
+        <f>B508/ C508</f>
         <v>0</v>
       </c>
     </row>
@@ -22816,6 +23323,7 @@
         <v>1015</v>
       </c>
       <c r="L509">
+        <f>B509/ C509</f>
         <v>0</v>
       </c>
     </row>
@@ -22854,6 +23362,7 @@
         <v>1014</v>
       </c>
       <c r="L510">
+        <f>B510/ C510</f>
         <v>0</v>
       </c>
     </row>
@@ -22892,6 +23401,7 @@
         <v>1011</v>
       </c>
       <c r="L511">
+        <f>B511/ C511</f>
         <v>0</v>
       </c>
     </row>
@@ -22930,6 +23440,7 @@
         <v>1011</v>
       </c>
       <c r="L512">
+        <f>B512/ C512</f>
         <v>0</v>
       </c>
     </row>
@@ -22968,6 +23479,7 @@
         <v>1024</v>
       </c>
       <c r="L513">
+        <f>B513/ C513</f>
         <v>0</v>
       </c>
     </row>
@@ -23006,6 +23518,7 @@
         <v>1011</v>
       </c>
       <c r="L514">
+        <f>B514/ C514</f>
         <v>0</v>
       </c>
     </row>
@@ -23044,6 +23557,7 @@
         <v>1029</v>
       </c>
       <c r="L515">
+        <f>B515/ C515</f>
         <v>0</v>
       </c>
     </row>
@@ -23082,6 +23596,7 @@
         <v>1017</v>
       </c>
       <c r="L516">
+        <f>B516/ C516</f>
         <v>0</v>
       </c>
     </row>
@@ -23120,6 +23635,7 @@
         <v>1017</v>
       </c>
       <c r="L517">
+        <f>B517/ C517</f>
         <v>0</v>
       </c>
     </row>
@@ -23158,6 +23674,7 @@
         <v>1011</v>
       </c>
       <c r="L518">
+        <f>B518/ C518</f>
         <v>0</v>
       </c>
     </row>
@@ -23196,6 +23713,7 @@
         <v>1011</v>
       </c>
       <c r="L519">
+        <f>B519/ C519</f>
         <v>0</v>
       </c>
     </row>
@@ -23234,6 +23752,7 @@
         <v>1012</v>
       </c>
       <c r="L520">
+        <f>B520/ C520</f>
         <v>0</v>
       </c>
     </row>
@@ -23272,6 +23791,7 @@
         <v>1011</v>
       </c>
       <c r="L521">
+        <f>B521/ C521</f>
         <v>0</v>
       </c>
     </row>
@@ -23310,6 +23830,7 @@
         <v>1013</v>
       </c>
       <c r="L522">
+        <f>B522/ C522</f>
         <v>0</v>
       </c>
     </row>
@@ -23348,6 +23869,7 @@
         <v>1016</v>
       </c>
       <c r="L523">
+        <f>B523/ C523</f>
         <v>0</v>
       </c>
     </row>
@@ -23386,6 +23908,7 @@
         <v>1014</v>
       </c>
       <c r="L524">
+        <f>B524/ C524</f>
         <v>0</v>
       </c>
     </row>
@@ -23424,6 +23947,7 @@
         <v>1011</v>
       </c>
       <c r="L525">
+        <f>B525/ C525</f>
         <v>0</v>
       </c>
     </row>
@@ -23462,6 +23986,7 @@
         <v>1011</v>
       </c>
       <c r="L526">
+        <f>B526/ C526</f>
         <v>0</v>
       </c>
     </row>
@@ -23500,6 +24025,7 @@
         <v>1011</v>
       </c>
       <c r="L527">
+        <f>B527/ C527</f>
         <v>0</v>
       </c>
     </row>
@@ -23538,6 +24064,7 @@
         <v>1011</v>
       </c>
       <c r="L528">
+        <f>B528/ C528</f>
         <v>0</v>
       </c>
     </row>
@@ -23576,6 +24103,7 @@
         <v>1016</v>
       </c>
       <c r="L529">
+        <f>B529/ C529</f>
         <v>0</v>
       </c>
     </row>
@@ -23614,6 +24142,7 @@
         <v>1015</v>
       </c>
       <c r="L530">
+        <f>B530/ C530</f>
         <v>0</v>
       </c>
     </row>
@@ -23652,6 +24181,7 @@
         <v>1011</v>
       </c>
       <c r="L531">
+        <f>B531/ C531</f>
         <v>0</v>
       </c>
     </row>
@@ -23690,6 +24220,7 @@
         <v>1015</v>
       </c>
       <c r="L532">
+        <f>B532/ C532</f>
         <v>0</v>
       </c>
     </row>
@@ -23728,6 +24259,7 @@
         <v>1020</v>
       </c>
       <c r="L533">
+        <f>B533/ C533</f>
         <v>0</v>
       </c>
     </row>
@@ -23766,6 +24298,7 @@
         <v>1017</v>
       </c>
       <c r="L534">
+        <f>B534/ C534</f>
         <v>0</v>
       </c>
     </row>
@@ -23804,6 +24337,7 @@
         <v>1014</v>
       </c>
       <c r="L535">
+        <f>B535/ C535</f>
         <v>0</v>
       </c>
     </row>
@@ -23842,6 +24376,7 @@
         <v>1020</v>
       </c>
       <c r="L536">
+        <f>B536/ C536</f>
         <v>0</v>
       </c>
     </row>
@@ -23880,6 +24415,7 @@
         <v>1015</v>
       </c>
       <c r="L537">
+        <f>B537/ C537</f>
         <v>0</v>
       </c>
     </row>
@@ -23918,6 +24454,7 @@
         <v>1015</v>
       </c>
       <c r="L538">
+        <f>B538/ C538</f>
         <v>0</v>
       </c>
     </row>
@@ -23956,6 +24493,7 @@
         <v>1011</v>
       </c>
       <c r="L539">
+        <f>B539/ C539</f>
         <v>0</v>
       </c>
     </row>
@@ -23994,6 +24532,7 @@
         <v>1011</v>
       </c>
       <c r="L540">
+        <f>B540/ C540</f>
         <v>0</v>
       </c>
     </row>
@@ -24032,6 +24571,7 @@
         <v>1011</v>
       </c>
       <c r="L541">
+        <f>B541/ C541</f>
         <v>0</v>
       </c>
     </row>
@@ -24070,6 +24610,7 @@
         <v>1011</v>
       </c>
       <c r="L542">
+        <f>B542/ C542</f>
         <v>0</v>
       </c>
     </row>
@@ -24108,6 +24649,7 @@
         <v>1011</v>
       </c>
       <c r="L543">
+        <f>B543/ C543</f>
         <v>0</v>
       </c>
     </row>
@@ -24146,6 +24688,7 @@
         <v>1018</v>
       </c>
       <c r="L544">
+        <f>B544/ C544</f>
         <v>0</v>
       </c>
     </row>
@@ -24184,6 +24727,7 @@
         <v>1022</v>
       </c>
       <c r="L545">
+        <f>B545/ C545</f>
         <v>0</v>
       </c>
     </row>
@@ -24222,6 +24766,7 @@
         <v>1011</v>
       </c>
       <c r="L546">
+        <f>B546/ C546</f>
         <v>0</v>
       </c>
     </row>
@@ -24260,6 +24805,7 @@
         <v>1017</v>
       </c>
       <c r="L547">
+        <f>B547/ C547</f>
         <v>0</v>
       </c>
     </row>
@@ -24298,6 +24844,7 @@
         <v>1019</v>
       </c>
       <c r="L548">
+        <f>B548/ C548</f>
         <v>0</v>
       </c>
     </row>
@@ -24336,6 +24883,7 @@
         <v>1011</v>
       </c>
       <c r="L549">
+        <f>B549/ C549</f>
         <v>0</v>
       </c>
     </row>
@@ -24374,6 +24922,7 @@
         <v>1011</v>
       </c>
       <c r="L550">
+        <f>B550/ C550</f>
         <v>0</v>
       </c>
     </row>
@@ -24412,6 +24961,7 @@
         <v>1011</v>
       </c>
       <c r="L551">
+        <f>B551/ C551</f>
         <v>0</v>
       </c>
     </row>
@@ -24450,6 +25000,7 @@
         <v>1011</v>
       </c>
       <c r="L552">
+        <f>B552/ C552</f>
         <v>0</v>
       </c>
     </row>
@@ -24488,6 +25039,7 @@
         <v>1030</v>
       </c>
       <c r="L553">
+        <f>B553/ C553</f>
         <v>0</v>
       </c>
     </row>
@@ -24526,6 +25078,7 @@
         <v>1011</v>
       </c>
       <c r="L554">
+        <f>B554/ C554</f>
         <v>0</v>
       </c>
     </row>
@@ -24564,6 +25117,7 @@
         <v>1016</v>
       </c>
       <c r="L555">
+        <f>B555/ C555</f>
         <v>0</v>
       </c>
     </row>
@@ -24602,6 +25156,7 @@
         <v>1016</v>
       </c>
       <c r="L556">
+        <f>B556/ C556</f>
         <v>0</v>
       </c>
     </row>
@@ -24640,6 +25195,7 @@
         <v>1011</v>
       </c>
       <c r="L557">
+        <f>B557/ C557</f>
         <v>0</v>
       </c>
     </row>
@@ -24678,6 +25234,7 @@
         <v>1012</v>
       </c>
       <c r="L558">
+        <f>B558/ C558</f>
         <v>0</v>
       </c>
     </row>
@@ -24716,6 +25273,7 @@
         <v>1016</v>
       </c>
       <c r="L559">
+        <f>B559/ C559</f>
         <v>0</v>
       </c>
     </row>
@@ -24754,6 +25312,7 @@
         <v>1017</v>
       </c>
       <c r="L560">
+        <f>B560/ C560</f>
         <v>0</v>
       </c>
     </row>
@@ -24792,6 +25351,7 @@
         <v>1011</v>
       </c>
       <c r="L561">
+        <f>B561/ C561</f>
         <v>0</v>
       </c>
     </row>
@@ -24830,6 +25390,7 @@
         <v>1011</v>
       </c>
       <c r="L562">
+        <f>B562/ C562</f>
         <v>0</v>
       </c>
     </row>
@@ -24868,6 +25429,7 @@
         <v>1011</v>
       </c>
       <c r="L563">
+        <f>B563/ C563</f>
         <v>0</v>
       </c>
     </row>
@@ -24906,6 +25468,7 @@
         <v>1012</v>
       </c>
       <c r="L564">
+        <f>B564/ C564</f>
         <v>0</v>
       </c>
     </row>
@@ -24944,6 +25507,7 @@
         <v>1016</v>
       </c>
       <c r="L565">
+        <f>B565/ C565</f>
         <v>0</v>
       </c>
     </row>
@@ -24982,6 +25546,7 @@
         <v>1017</v>
       </c>
       <c r="L566">
+        <f>B566/ C566</f>
         <v>0</v>
       </c>
     </row>
@@ -25020,6 +25585,7 @@
         <v>1014</v>
       </c>
       <c r="L567">
+        <f>B567/ C567</f>
         <v>0</v>
       </c>
     </row>
@@ -25058,6 +25624,7 @@
         <v>1011</v>
       </c>
       <c r="L568">
+        <f>B568/ C568</f>
         <v>0</v>
       </c>
     </row>
@@ -25096,6 +25663,7 @@
         <v>1023</v>
       </c>
       <c r="L569">
+        <f>B569/ C569</f>
         <v>0</v>
       </c>
     </row>
@@ -25134,6 +25702,7 @@
         <v>1013</v>
       </c>
       <c r="L570">
+        <f>B570/ C570</f>
         <v>0</v>
       </c>
     </row>
@@ -25172,6 +25741,7 @@
         <v>1020</v>
       </c>
       <c r="L571">
+        <f>B571/ C571</f>
         <v>0</v>
       </c>
     </row>
@@ -25210,6 +25780,7 @@
         <v>1011</v>
       </c>
       <c r="L572">
+        <f>B572/ C572</f>
         <v>0</v>
       </c>
     </row>
@@ -25248,6 +25819,7 @@
         <v>1011</v>
       </c>
       <c r="L573">
+        <f>B573/ C573</f>
         <v>0</v>
       </c>
     </row>
@@ -25286,6 +25858,7 @@
         <v>1021</v>
       </c>
       <c r="L574">
+        <f>B574/ C574</f>
         <v>0</v>
       </c>
     </row>
@@ -25324,6 +25897,7 @@
         <v>1028</v>
       </c>
       <c r="L575">
+        <f>B575/ C575</f>
         <v>0</v>
       </c>
     </row>
@@ -25362,6 +25936,7 @@
         <v>1016</v>
       </c>
       <c r="L576">
+        <f>B576/ C576</f>
         <v>0</v>
       </c>
     </row>
@@ -25400,6 +25975,7 @@
         <v>1017</v>
       </c>
       <c r="L577">
+        <f>B577/ C577</f>
         <v>0</v>
       </c>
     </row>
@@ -25438,6 +26014,7 @@
         <v>1011</v>
       </c>
       <c r="L578">
+        <f>B578/ C578</f>
         <v>0</v>
       </c>
     </row>
@@ -25476,6 +26053,7 @@
         <v>1015</v>
       </c>
       <c r="L579">
+        <f>B579/ C579</f>
         <v>0</v>
       </c>
     </row>
@@ -25514,6 +26092,7 @@
         <v>1011</v>
       </c>
       <c r="L580">
+        <f>B580/ C580</f>
         <v>0</v>
       </c>
     </row>
@@ -25552,6 +26131,7 @@
         <v>1022</v>
       </c>
       <c r="L581">
+        <f>B581/ C581</f>
         <v>0</v>
       </c>
     </row>
@@ -25590,6 +26170,7 @@
         <v>1015</v>
       </c>
       <c r="L582">
+        <f>B582/ C582</f>
         <v>0</v>
       </c>
     </row>
@@ -25628,6 +26209,7 @@
         <v>1011</v>
       </c>
       <c r="L583">
+        <f>B583/ C583</f>
         <v>0</v>
       </c>
     </row>
@@ -25666,6 +26248,7 @@
         <v>1022</v>
       </c>
       <c r="L584">
+        <f>B584/ C584</f>
         <v>0</v>
       </c>
     </row>
@@ -25704,6 +26287,7 @@
         <v>1011</v>
       </c>
       <c r="L585">
+        <f>B585/ C585</f>
         <v>0</v>
       </c>
     </row>
@@ -25742,6 +26326,7 @@
         <v>1011</v>
       </c>
       <c r="L586">
+        <f>B586/ C586</f>
         <v>0</v>
       </c>
     </row>
@@ -25780,6 +26365,7 @@
         <v>1014</v>
       </c>
       <c r="L587">
+        <f>B587/ C587</f>
         <v>0</v>
       </c>
     </row>
@@ -25818,6 +26404,7 @@
         <v>1015</v>
       </c>
       <c r="L588">
+        <f>B588/ C588</f>
         <v>0</v>
       </c>
     </row>
@@ -25856,6 +26443,7 @@
         <v>1011</v>
       </c>
       <c r="L589">
+        <f>B589/ C589</f>
         <v>0</v>
       </c>
     </row>
@@ -25894,6 +26482,7 @@
         <v>1017</v>
       </c>
       <c r="L590">
+        <f>B590/ C590</f>
         <v>0</v>
       </c>
     </row>
@@ -25932,6 +26521,7 @@
         <v>1017</v>
       </c>
       <c r="L591">
+        <f>B591/ C591</f>
         <v>0</v>
       </c>
     </row>
@@ -25970,6 +26560,7 @@
         <v>1025</v>
       </c>
       <c r="L592">
+        <f>B592/ C592</f>
         <v>0</v>
       </c>
     </row>
@@ -26008,6 +26599,7 @@
         <v>1011</v>
       </c>
       <c r="L593">
+        <f>B593/ C593</f>
         <v>0</v>
       </c>
     </row>
@@ -26046,6 +26638,7 @@
         <v>1011</v>
       </c>
       <c r="L594">
+        <f>B594/ C594</f>
         <v>0</v>
       </c>
     </row>
@@ -26084,6 +26677,7 @@
         <v>1014</v>
       </c>
       <c r="L595">
+        <f>B595/ C595</f>
         <v>0</v>
       </c>
     </row>
@@ -26122,6 +26716,7 @@
         <v>1011</v>
       </c>
       <c r="L596">
+        <f>B596/ C596</f>
         <v>0</v>
       </c>
     </row>
@@ -26160,6 +26755,7 @@
         <v>1011</v>
       </c>
       <c r="L597">
+        <f>B597/ C597</f>
         <v>0</v>
       </c>
     </row>
@@ -26198,6 +26794,7 @@
         <v>1011</v>
       </c>
       <c r="L598">
+        <f>B598/ C598</f>
         <v>0</v>
       </c>
     </row>
@@ -26236,6 +26833,7 @@
         <v>1011</v>
       </c>
       <c r="L599">
+        <f>B599/ C599</f>
         <v>0</v>
       </c>
     </row>
@@ -26274,6 +26872,7 @@
         <v>1011</v>
       </c>
       <c r="L600">
+        <f>B600/ C600</f>
         <v>0</v>
       </c>
     </row>
@@ -26312,6 +26911,7 @@
         <v>1013</v>
       </c>
       <c r="L601">
+        <f>B601/ C601</f>
         <v>0</v>
       </c>
     </row>
@@ -26350,6 +26950,7 @@
         <v>1016</v>
       </c>
       <c r="L602">
+        <f>B602/ C602</f>
         <v>0</v>
       </c>
     </row>
@@ -26388,6 +26989,7 @@
         <v>1015</v>
       </c>
       <c r="L603">
+        <f>B603/ C603</f>
         <v>0</v>
       </c>
     </row>
@@ -26426,6 +27028,7 @@
         <v>1012</v>
       </c>
       <c r="L604">
+        <f>B604/ C604</f>
         <v>0</v>
       </c>
     </row>
@@ -26464,6 +27067,7 @@
         <v>1011</v>
       </c>
       <c r="L605">
+        <f>B605/ C605</f>
         <v>0</v>
       </c>
     </row>
@@ -26502,6 +27106,7 @@
         <v>1022</v>
       </c>
       <c r="L606">
+        <f>B606/ C606</f>
         <v>0</v>
       </c>
     </row>
@@ -26540,6 +27145,7 @@
         <v>1011</v>
       </c>
       <c r="L607">
+        <f>B607/ C607</f>
         <v>0</v>
       </c>
     </row>
@@ -26578,6 +27184,7 @@
         <v>1013</v>
       </c>
       <c r="L608">
+        <f>B608/ C608</f>
         <v>0</v>
       </c>
     </row>
@@ -26616,6 +27223,7 @@
         <v>1011</v>
       </c>
       <c r="L609">
+        <f>B609/ C609</f>
         <v>0</v>
       </c>
     </row>
@@ -26654,6 +27262,7 @@
         <v>1012</v>
       </c>
       <c r="L610">
+        <f>B610/ C610</f>
         <v>0</v>
       </c>
     </row>
@@ -26692,6 +27301,7 @@
         <v>1011</v>
       </c>
       <c r="L611">
+        <f>B611/ C611</f>
         <v>0</v>
       </c>
     </row>
@@ -26730,6 +27340,7 @@
         <v>1015</v>
       </c>
       <c r="L612">
+        <f>B612/ C612</f>
         <v>0</v>
       </c>
     </row>
@@ -26768,6 +27379,7 @@
         <v>1023</v>
       </c>
       <c r="L613">
+        <f>B613/ C613</f>
         <v>0</v>
       </c>
     </row>
@@ -26806,6 +27418,7 @@
         <v>1011</v>
       </c>
       <c r="L614">
+        <f>B614/ C614</f>
         <v>0</v>
       </c>
     </row>
@@ -26844,6 +27457,7 @@
         <v>1011</v>
       </c>
       <c r="L615">
+        <f>B615/ C615</f>
         <v>0</v>
       </c>
     </row>
@@ -26882,6 +27496,7 @@
         <v>1014</v>
       </c>
       <c r="L616">
+        <f>B616/ C616</f>
         <v>0</v>
       </c>
     </row>
@@ -26920,6 +27535,7 @@
         <v>1019</v>
       </c>
       <c r="L617">
+        <f>B617/ C617</f>
         <v>0</v>
       </c>
     </row>
@@ -26958,6 +27574,7 @@
         <v>1011</v>
       </c>
       <c r="L618">
+        <f>B618/ C618</f>
         <v>0</v>
       </c>
     </row>
@@ -26996,6 +27613,7 @@
         <v>1015</v>
       </c>
       <c r="L619">
+        <f>B619/ C619</f>
         <v>0</v>
       </c>
     </row>
@@ -27034,6 +27652,7 @@
         <v>1011</v>
       </c>
       <c r="L620">
+        <f>B620/ C620</f>
         <v>0</v>
       </c>
     </row>
@@ -27072,6 +27691,7 @@
         <v>1011</v>
       </c>
       <c r="L621">
+        <f>B621/ C621</f>
         <v>0</v>
       </c>
     </row>
@@ -27110,6 +27730,7 @@
         <v>1019</v>
       </c>
       <c r="L622">
+        <f>B622/ C622</f>
         <v>0</v>
       </c>
     </row>
@@ -27148,6 +27769,7 @@
         <v>1011</v>
       </c>
       <c r="L623">
+        <f>B623/ C623</f>
         <v>0</v>
       </c>
     </row>
@@ -27186,6 +27808,7 @@
         <v>1011</v>
       </c>
       <c r="L624">
+        <f>B624/ C624</f>
         <v>0</v>
       </c>
     </row>
@@ -27224,6 +27847,7 @@
         <v>1013</v>
       </c>
       <c r="L625">
+        <f>B625/ C625</f>
         <v>0</v>
       </c>
     </row>
@@ -27262,6 +27886,7 @@
         <v>1013</v>
       </c>
       <c r="L626">
+        <f>B626/ C626</f>
         <v>0</v>
       </c>
     </row>
@@ -27300,6 +27925,7 @@
         <v>1011</v>
       </c>
       <c r="L627">
+        <f>B627/ C627</f>
         <v>0</v>
       </c>
     </row>
@@ -27338,6 +27964,7 @@
         <v>1014</v>
       </c>
       <c r="L628">
+        <f>B628/ C628</f>
         <v>0</v>
       </c>
     </row>
@@ -27376,6 +28003,7 @@
         <v>1024</v>
       </c>
       <c r="L629">
+        <f>B629/ C629</f>
         <v>0</v>
       </c>
     </row>
@@ -27414,6 +28042,7 @@
         <v>1016</v>
       </c>
       <c r="L630">
+        <f>B630/ C630</f>
         <v>0</v>
       </c>
     </row>
@@ -27452,6 +28081,7 @@
         <v>1015</v>
       </c>
       <c r="L631">
+        <f>B631/ C631</f>
         <v>0</v>
       </c>
     </row>
@@ -27490,6 +28120,7 @@
         <v>1014</v>
       </c>
       <c r="L632">
+        <f>B632/ C632</f>
         <v>0</v>
       </c>
     </row>
@@ -27528,6 +28159,7 @@
         <v>1011</v>
       </c>
       <c r="L633">
+        <f>B633/ C633</f>
         <v>0</v>
       </c>
     </row>
@@ -27566,6 +28198,7 @@
         <v>1011</v>
       </c>
       <c r="L634">
+        <f>B634/ C634</f>
         <v>0</v>
       </c>
     </row>
@@ -27604,6 +28237,7 @@
         <v>1024</v>
       </c>
       <c r="L635">
+        <f>B635/ C635</f>
         <v>0</v>
       </c>
     </row>
@@ -27642,6 +28276,7 @@
         <v>1017</v>
       </c>
       <c r="L636">
+        <f>B636/ C636</f>
         <v>0</v>
       </c>
     </row>
@@ -27680,6 +28315,7 @@
         <v>1021</v>
       </c>
       <c r="L637">
+        <f>B637/ C637</f>
         <v>0</v>
       </c>
     </row>
@@ -27718,6 +28354,7 @@
         <v>1017</v>
       </c>
       <c r="L638">
+        <f>B638/ C638</f>
         <v>0</v>
       </c>
     </row>
@@ -27756,6 +28393,7 @@
         <v>1011</v>
       </c>
       <c r="L639">
+        <f>B639/ C639</f>
         <v>0</v>
       </c>
     </row>
@@ -27794,6 +28432,7 @@
         <v>1011</v>
       </c>
       <c r="L640">
+        <f>B640/ C640</f>
         <v>0</v>
       </c>
     </row>
@@ -27832,6 +28471,7 @@
         <v>1017</v>
       </c>
       <c r="L641">
+        <f>B641/ C641</f>
         <v>0</v>
       </c>
     </row>
@@ -27870,6 +28510,7 @@
         <v>1022</v>
       </c>
       <c r="L642">
+        <f>B642/ C642</f>
         <v>0</v>
       </c>
     </row>
@@ -27908,6 +28549,7 @@
         <v>1011</v>
       </c>
       <c r="L643">
+        <f>B643/ C643</f>
         <v>0</v>
       </c>
     </row>
@@ -27946,6 +28588,7 @@
         <v>1024</v>
       </c>
       <c r="L644">
+        <f>B644/ C644</f>
         <v>0</v>
       </c>
     </row>
@@ -27984,6 +28627,7 @@
         <v>1014</v>
       </c>
       <c r="L645">
+        <f>B645/ C645</f>
         <v>0</v>
       </c>
     </row>
@@ -28022,6 +28666,7 @@
         <v>1011</v>
       </c>
       <c r="L646">
+        <f>B646/ C646</f>
         <v>0</v>
       </c>
     </row>
@@ -28060,6 +28705,7 @@
         <v>1016</v>
       </c>
       <c r="L647">
+        <f>B647/ C647</f>
         <v>0</v>
       </c>
     </row>
@@ -28098,6 +28744,7 @@
         <v>1011</v>
       </c>
       <c r="L648">
+        <f>B648/ C648</f>
         <v>0</v>
       </c>
     </row>
@@ -28136,6 +28783,7 @@
         <v>1017</v>
       </c>
       <c r="L649">
+        <f>B649/ C649</f>
         <v>0</v>
       </c>
     </row>
@@ -28174,6 +28822,7 @@
         <v>1011</v>
       </c>
       <c r="L650">
+        <f>B650/ C650</f>
         <v>0</v>
       </c>
     </row>
@@ -28212,6 +28861,7 @@
         <v>1011</v>
       </c>
       <c r="L651">
+        <f>B651/ C651</f>
         <v>0</v>
       </c>
     </row>
@@ -28250,6 +28900,7 @@
         <v>1011</v>
       </c>
       <c r="L652">
+        <f>B652/ C652</f>
         <v>0</v>
       </c>
     </row>
@@ -28288,6 +28939,7 @@
         <v>1016</v>
       </c>
       <c r="L653">
+        <f>B653/ C653</f>
         <v>0</v>
       </c>
     </row>
@@ -28326,6 +28978,7 @@
         <v>1016</v>
       </c>
       <c r="L654">
+        <f>B654/ C654</f>
         <v>0</v>
       </c>
     </row>
@@ -28364,6 +29017,7 @@
         <v>1011</v>
       </c>
       <c r="L655">
+        <f>B655/ C655</f>
         <v>0</v>
       </c>
     </row>
@@ -28402,6 +29056,7 @@
         <v>1015</v>
       </c>
       <c r="L656">
+        <f>B656/ C656</f>
         <v>0</v>
       </c>
     </row>
@@ -28440,6 +29095,7 @@
         <v>1012</v>
       </c>
       <c r="L657">
+        <f>B657/ C657</f>
         <v>0</v>
       </c>
     </row>
@@ -28478,6 +29134,7 @@
         <v>1011</v>
       </c>
       <c r="L658">
+        <f>B658/ C658</f>
         <v>0</v>
       </c>
     </row>
@@ -28516,6 +29173,7 @@
         <v>1022</v>
       </c>
       <c r="L659">
+        <f>B659/ C659</f>
         <v>0</v>
       </c>
     </row>
@@ -28554,6 +29212,7 @@
         <v>1011</v>
       </c>
       <c r="L660">
+        <f>B660/ C660</f>
         <v>0</v>
       </c>
     </row>
@@ -28592,6 +29251,7 @@
         <v>1011</v>
       </c>
       <c r="L661">
+        <f>B661/ C661</f>
         <v>0</v>
       </c>
     </row>
@@ -28630,6 +29290,7 @@
         <v>1011</v>
       </c>
       <c r="L662">
+        <f>B662/ C662</f>
         <v>0</v>
       </c>
     </row>
@@ -28668,6 +29329,7 @@
         <v>1016</v>
       </c>
       <c r="L663">
+        <f>B663/ C663</f>
         <v>0</v>
       </c>
     </row>
@@ -28706,6 +29368,7 @@
         <v>1011</v>
       </c>
       <c r="L664">
+        <f>B664/ C664</f>
         <v>0</v>
       </c>
     </row>
@@ -28744,6 +29407,7 @@
         <v>1015</v>
       </c>
       <c r="L665">
+        <f>B665/ C665</f>
         <v>0</v>
       </c>
     </row>
@@ -28782,6 +29446,7 @@
         <v>1015</v>
       </c>
       <c r="L666">
+        <f>B666/ C666</f>
         <v>0</v>
       </c>
     </row>
@@ -28820,6 +29485,7 @@
         <v>1011</v>
       </c>
       <c r="L667">
+        <f>B667/ C667</f>
         <v>0</v>
       </c>
     </row>
@@ -28858,6 +29524,7 @@
         <v>1011</v>
       </c>
       <c r="L668">
+        <f>B668/ C668</f>
         <v>0</v>
       </c>
     </row>
@@ -28896,6 +29563,7 @@
         <v>1018</v>
       </c>
       <c r="L669">
+        <f>B669/ C669</f>
         <v>0</v>
       </c>
     </row>
@@ -28934,6 +29602,7 @@
         <v>1016</v>
       </c>
       <c r="L670">
+        <f>B670/ C670</f>
         <v>0</v>
       </c>
     </row>
@@ -28972,6 +29641,7 @@
         <v>1013</v>
       </c>
       <c r="L671">
+        <f>B671/ C671</f>
         <v>0</v>
       </c>
     </row>
@@ -29010,6 +29680,7 @@
         <v>1011</v>
       </c>
       <c r="L672">
+        <f>B672/ C672</f>
         <v>0</v>
       </c>
     </row>
@@ -29048,6 +29719,7 @@
         <v>1012</v>
       </c>
       <c r="L673">
+        <f>B673/ C673</f>
         <v>0</v>
       </c>
     </row>
@@ -29086,6 +29758,7 @@
         <v>1021</v>
       </c>
       <c r="L674">
+        <f>B674/ C674</f>
         <v>0</v>
       </c>
     </row>
@@ -29124,6 +29797,7 @@
         <v>1016</v>
       </c>
       <c r="L675">
+        <f>B675/ C675</f>
         <v>0</v>
       </c>
     </row>
@@ -29162,6 +29836,7 @@
         <v>1011</v>
       </c>
       <c r="L676">
+        <f>B676/ C676</f>
         <v>0</v>
       </c>
     </row>
@@ -29200,6 +29875,7 @@
         <v>1012</v>
       </c>
       <c r="L677">
+        <f>B677/ C677</f>
         <v>0</v>
       </c>
     </row>
@@ -29238,6 +29914,7 @@
         <v>1016</v>
       </c>
       <c r="L678">
+        <f>B678/ C678</f>
         <v>0</v>
       </c>
     </row>
@@ -29276,6 +29953,7 @@
         <v>1011</v>
       </c>
       <c r="L679">
+        <f>B679/ C679</f>
         <v>0</v>
       </c>
     </row>
@@ -29314,6 +29992,7 @@
         <v>1011</v>
       </c>
       <c r="L680">
+        <f>B680/ C680</f>
         <v>0</v>
       </c>
     </row>
@@ -29352,6 +30031,7 @@
         <v>1011</v>
       </c>
       <c r="L681">
+        <f>B681/ C681</f>
         <v>0</v>
       </c>
     </row>
@@ -29390,6 +30070,7 @@
         <v>1011</v>
       </c>
       <c r="L682">
+        <f>B682/ C682</f>
         <v>0</v>
       </c>
     </row>
@@ -29428,6 +30109,7 @@
         <v>1021</v>
       </c>
       <c r="L683">
+        <f>B683/ C683</f>
         <v>0</v>
       </c>
     </row>
@@ -29466,6 +30148,7 @@
         <v>1017</v>
       </c>
       <c r="L684">
+        <f>B684/ C684</f>
         <v>0</v>
       </c>
     </row>
@@ -29504,6 +30187,7 @@
         <v>1011</v>
       </c>
       <c r="L685">
+        <f>B685/ C685</f>
         <v>0</v>
       </c>
     </row>
@@ -29542,6 +30226,7 @@
         <v>1017</v>
       </c>
       <c r="L686">
+        <f>B686/ C686</f>
         <v>0</v>
       </c>
     </row>
@@ -29580,6 +30265,7 @@
         <v>1013</v>
       </c>
       <c r="L687">
+        <f>B687/ C687</f>
         <v>0</v>
       </c>
     </row>
@@ -29618,6 +30304,7 @@
         <v>1011</v>
       </c>
       <c r="L688">
+        <f>B688/ C688</f>
         <v>0</v>
       </c>
     </row>
@@ -29656,6 +30343,7 @@
         <v>1014</v>
       </c>
       <c r="L689">
+        <f>B689/ C689</f>
         <v>0</v>
       </c>
     </row>
@@ -29694,6 +30382,7 @@
         <v>1016</v>
       </c>
       <c r="L690">
+        <f>B690/ C690</f>
         <v>0</v>
       </c>
     </row>
@@ -29732,6 +30421,7 @@
         <v>1011</v>
       </c>
       <c r="L691">
+        <f>B691/ C691</f>
         <v>0</v>
       </c>
     </row>
@@ -29770,6 +30460,7 @@
         <v>1011</v>
       </c>
       <c r="L692">
+        <f>B692/ C692</f>
         <v>0</v>
       </c>
     </row>
@@ -29808,6 +30499,7 @@
         <v>1011</v>
       </c>
       <c r="L693">
+        <f>B693/ C693</f>
         <v>0</v>
       </c>
     </row>
@@ -29846,6 +30538,7 @@
         <v>1015</v>
       </c>
       <c r="L694">
+        <f>B694/ C694</f>
         <v>0</v>
       </c>
     </row>
@@ -29884,6 +30577,7 @@
         <v>1011</v>
       </c>
       <c r="L695">
+        <f>B695/ C695</f>
         <v>0</v>
       </c>
     </row>
@@ -29922,6 +30616,7 @@
         <v>1011</v>
       </c>
       <c r="L696">
+        <f>B696/ C696</f>
         <v>0</v>
       </c>
     </row>
@@ -29960,6 +30655,7 @@
         <v>1017</v>
       </c>
       <c r="L697">
+        <f>B697/ C697</f>
         <v>0</v>
       </c>
     </row>
@@ -29998,6 +30694,7 @@
         <v>1017</v>
       </c>
       <c r="L698">
+        <f>B698/ C698</f>
         <v>0</v>
       </c>
     </row>
@@ -30036,6 +30733,7 @@
         <v>1013</v>
       </c>
       <c r="L699">
+        <f>B699/ C699</f>
         <v>0</v>
       </c>
     </row>
@@ -30074,6 +30772,7 @@
         <v>1012</v>
       </c>
       <c r="L700">
+        <f>B700/ C700</f>
         <v>0</v>
       </c>
     </row>
@@ -30112,6 +30811,7 @@
         <v>1017</v>
       </c>
       <c r="L701">
+        <f>B701/ C701</f>
         <v>0</v>
       </c>
     </row>
@@ -30150,6 +30850,7 @@
         <v>1015</v>
       </c>
       <c r="L702">
+        <f>B702/ C702</f>
         <v>0</v>
       </c>
     </row>
@@ -30188,6 +30889,7 @@
         <v>1013</v>
       </c>
       <c r="L703">
+        <f>B703/ C703</f>
         <v>0</v>
       </c>
     </row>
@@ -30226,6 +30928,7 @@
         <v>1014</v>
       </c>
       <c r="L704">
+        <f>B704/ C704</f>
         <v>0</v>
       </c>
     </row>
@@ -30264,6 +30967,7 @@
         <v>1017</v>
       </c>
       <c r="L705">
+        <f>B705/ C705</f>
         <v>0</v>
       </c>
     </row>
@@ -30302,6 +31006,7 @@
         <v>1014</v>
       </c>
       <c r="L706">
+        <f>B706/ C706</f>
         <v>0</v>
       </c>
     </row>
@@ -30340,6 +31045,7 @@
         <v>1019</v>
       </c>
       <c r="L707">
+        <f>B707/ C707</f>
         <v>0</v>
       </c>
     </row>
@@ -30378,6 +31084,7 @@
         <v>1021</v>
       </c>
       <c r="L708">
+        <f>B708/ C708</f>
         <v>0</v>
       </c>
     </row>
@@ -30416,6 +31123,7 @@
         <v>1016</v>
       </c>
       <c r="L709">
+        <f>B709/ C709</f>
         <v>0</v>
       </c>
     </row>
@@ -30454,6 +31162,7 @@
         <v>1015</v>
       </c>
       <c r="L710">
+        <f>B710/ C710</f>
         <v>0</v>
       </c>
     </row>
@@ -30492,6 +31201,7 @@
         <v>1011</v>
       </c>
       <c r="L711">
+        <f>B711/ C711</f>
         <v>0</v>
       </c>
     </row>
@@ -30530,6 +31240,7 @@
         <v>1011</v>
       </c>
       <c r="L712">
+        <f>B712/ C712</f>
         <v>0</v>
       </c>
     </row>
@@ -30568,6 +31279,7 @@
         <v>1013</v>
       </c>
       <c r="L713">
+        <f>B713/ C713</f>
         <v>0</v>
       </c>
     </row>
@@ -30606,6 +31318,7 @@
         <v>1022</v>
       </c>
       <c r="L714">
+        <f>B714/ C714</f>
         <v>0</v>
       </c>
     </row>
@@ -30644,6 +31357,7 @@
         <v>1011</v>
       </c>
       <c r="L715">
+        <f>B715/ C715</f>
         <v>0</v>
       </c>
     </row>
@@ -30682,6 +31396,7 @@
         <v>1011</v>
       </c>
       <c r="L716">
+        <f>B716/ C716</f>
         <v>0</v>
       </c>
     </row>
@@ -30720,6 +31435,7 @@
         <v>1012</v>
       </c>
       <c r="L717">
+        <f>B717/ C717</f>
         <v>0</v>
       </c>
     </row>
@@ -30758,6 +31474,7 @@
         <v>1011</v>
       </c>
       <c r="L718">
+        <f>B718/ C718</f>
         <v>0</v>
       </c>
     </row>
@@ -30796,6 +31513,7 @@
         <v>1011</v>
       </c>
       <c r="L719">
+        <f>B719/ C719</f>
         <v>0</v>
       </c>
     </row>
@@ -30834,6 +31552,7 @@
         <v>1017</v>
       </c>
       <c r="L720">
+        <f>B720/ C720</f>
         <v>0</v>
       </c>
     </row>
@@ -30872,6 +31591,7 @@
         <v>1011</v>
       </c>
       <c r="L721">
+        <f>B721/ C721</f>
         <v>0</v>
       </c>
     </row>
@@ -30910,6 +31630,7 @@
         <v>1011</v>
       </c>
       <c r="L722">
+        <f>B722/ C722</f>
         <v>0</v>
       </c>
     </row>
@@ -30948,6 +31669,7 @@
         <v>1011</v>
       </c>
       <c r="L723">
+        <f>B723/ C723</f>
         <v>0</v>
       </c>
     </row>
@@ -30986,6 +31708,7 @@
         <v>1015</v>
       </c>
       <c r="L724">
+        <f>B724/ C724</f>
         <v>0</v>
       </c>
     </row>
@@ -31024,6 +31747,7 @@
         <v>1011</v>
       </c>
       <c r="L725">
+        <f>B725/ C725</f>
         <v>0</v>
       </c>
     </row>
@@ -31062,6 +31786,7 @@
         <v>1015</v>
       </c>
       <c r="L726">
+        <f>B726/ C726</f>
         <v>0</v>
       </c>
     </row>
@@ -31100,6 +31825,7 @@
         <v>1013</v>
       </c>
       <c r="L727">
+        <f>B727/ C727</f>
         <v>0</v>
       </c>
     </row>
@@ -31138,6 +31864,7 @@
         <v>1011</v>
       </c>
       <c r="L728">
+        <f>B728/ C728</f>
         <v>0</v>
       </c>
     </row>
@@ -31176,6 +31903,7 @@
         <v>1011</v>
       </c>
       <c r="L729">
+        <f>B729/ C729</f>
         <v>0</v>
       </c>
     </row>
@@ -31214,6 +31942,7 @@
         <v>1011</v>
       </c>
       <c r="L730">
+        <f>B730/ C730</f>
         <v>0</v>
       </c>
     </row>
@@ -31252,6 +31981,7 @@
         <v>1011</v>
       </c>
       <c r="L731">
+        <f>B731/ C731</f>
         <v>0</v>
       </c>
     </row>
@@ -31290,6 +32020,7 @@
         <v>1021</v>
       </c>
       <c r="L732">
+        <f>B732/ C732</f>
         <v>0</v>
       </c>
     </row>
@@ -31328,6 +32059,7 @@
         <v>1011</v>
       </c>
       <c r="L733">
+        <f>B733/ C733</f>
         <v>0</v>
       </c>
     </row>
@@ -31366,6 +32098,7 @@
         <v>1015</v>
       </c>
       <c r="L734">
+        <f>B734/ C734</f>
         <v>0</v>
       </c>
     </row>
@@ -31404,6 +32137,7 @@
         <v>1011</v>
       </c>
       <c r="L735">
+        <f>B735/ C735</f>
         <v>0</v>
       </c>
     </row>
@@ -31442,6 +32176,7 @@
         <v>1013</v>
       </c>
       <c r="L736">
+        <f>B736/ C736</f>
         <v>0</v>
       </c>
     </row>
@@ -31480,6 +32215,7 @@
         <v>1011</v>
       </c>
       <c r="L737">
+        <f>B737/ C737</f>
         <v>0</v>
       </c>
     </row>
@@ -31518,6 +32254,7 @@
         <v>1022</v>
       </c>
       <c r="L738">
+        <f>B738/ C738</f>
         <v>0</v>
       </c>
     </row>
@@ -31556,6 +32293,7 @@
         <v>1011</v>
       </c>
       <c r="L739">
+        <f>B739/ C739</f>
         <v>0</v>
       </c>
     </row>
@@ -31594,6 +32332,7 @@
         <v>1011</v>
       </c>
       <c r="L740">
+        <f>B740/ C740</f>
         <v>0</v>
       </c>
     </row>
@@ -31632,6 +32371,7 @@
         <v>1016</v>
       </c>
       <c r="L741">
+        <f>B741/ C741</f>
         <v>0</v>
       </c>
     </row>
@@ -31670,6 +32410,7 @@
         <v>1019</v>
       </c>
       <c r="L742">
+        <f>B742/ C742</f>
         <v>0</v>
       </c>
     </row>
@@ -31708,6 +32449,7 @@
         <v>1019</v>
       </c>
       <c r="L743">
+        <f>B743/ C743</f>
         <v>0</v>
       </c>
     </row>
@@ -31746,6 +32488,7 @@
         <v>1011</v>
       </c>
       <c r="L744">
+        <f>B744/ C744</f>
         <v>0</v>
       </c>
     </row>
@@ -31784,6 +32527,7 @@
         <v>1015</v>
       </c>
       <c r="L745">
+        <f>B745/ C745</f>
         <v>0</v>
       </c>
     </row>
@@ -31822,6 +32566,7 @@
         <v>1011</v>
       </c>
       <c r="L746">
+        <f>B746/ C746</f>
         <v>0</v>
       </c>
     </row>
@@ -31860,6 +32605,7 @@
         <v>1023</v>
       </c>
       <c r="L747">
+        <f>B747/ C747</f>
         <v>0</v>
       </c>
     </row>
@@ -31898,6 +32644,7 @@
         <v>1011</v>
       </c>
       <c r="L748">
+        <f>B748/ C748</f>
         <v>0</v>
       </c>
     </row>
@@ -31936,6 +32683,7 @@
         <v>1013</v>
       </c>
       <c r="L749">
+        <f>B749/ C749</f>
         <v>0</v>
       </c>
     </row>
@@ -31974,6 +32722,7 @@
         <v>1011</v>
       </c>
       <c r="L750">
+        <f>B750/ C750</f>
         <v>0</v>
       </c>
     </row>
@@ -32012,6 +32761,7 @@
         <v>1024</v>
       </c>
       <c r="L751">
+        <f>B751/ C751</f>
         <v>0</v>
       </c>
     </row>
@@ -32050,6 +32800,7 @@
         <v>1013</v>
       </c>
       <c r="L752">
+        <f>B752/ C752</f>
         <v>0</v>
       </c>
     </row>
@@ -32088,6 +32839,7 @@
         <v>1012</v>
       </c>
       <c r="L753">
+        <f>B753/ C753</f>
         <v>0</v>
       </c>
     </row>
@@ -32126,6 +32878,7 @@
         <v>1013</v>
       </c>
       <c r="L754">
+        <f>B754/ C754</f>
         <v>0</v>
       </c>
     </row>
@@ -32164,6 +32917,7 @@
         <v>1013</v>
       </c>
       <c r="L755">
+        <f>B755/ C755</f>
         <v>0</v>
       </c>
     </row>
@@ -32202,6 +32956,7 @@
         <v>1011</v>
       </c>
       <c r="L756">
+        <f>B756/ C756</f>
         <v>0</v>
       </c>
     </row>
@@ -32240,6 +32995,7 @@
         <v>1011</v>
       </c>
       <c r="L757">
+        <f>B757/ C757</f>
         <v>0</v>
       </c>
     </row>
@@ -32278,6 +33034,7 @@
         <v>1011</v>
       </c>
       <c r="L758">
+        <f>B758/ C758</f>
         <v>0</v>
       </c>
     </row>
@@ -32316,6 +33073,7 @@
         <v>1011</v>
       </c>
       <c r="L759">
+        <f>B759/ C759</f>
         <v>0</v>
       </c>
     </row>
@@ -32354,6 +33112,7 @@
         <v>1024</v>
       </c>
       <c r="L760">
+        <f>B760/ C760</f>
         <v>0</v>
       </c>
     </row>
@@ -32392,6 +33151,7 @@
         <v>1025</v>
       </c>
       <c r="L761">
+        <f>B761/ C761</f>
         <v>0</v>
       </c>
     </row>
@@ -32430,6 +33190,7 @@
         <v>1011</v>
       </c>
       <c r="L762">
+        <f>B762/ C762</f>
         <v>0</v>
       </c>
     </row>
@@ -32468,6 +33229,7 @@
         <v>1017</v>
       </c>
       <c r="L763">
+        <f>B763/ C763</f>
         <v>0</v>
       </c>
     </row>
@@ -32506,6 +33268,7 @@
         <v>1011</v>
       </c>
       <c r="L764">
+        <f>B764/ C764</f>
         <v>0</v>
       </c>
     </row>
@@ -32544,6 +33307,7 @@
         <v>1011</v>
       </c>
       <c r="L765">
+        <f>B765/ C765</f>
         <v>0</v>
       </c>
     </row>
@@ -32582,6 +33346,7 @@
         <v>1015</v>
       </c>
       <c r="L766">
+        <f>B766/ C766</f>
         <v>0</v>
       </c>
     </row>
@@ -32620,6 +33385,7 @@
         <v>1021</v>
       </c>
       <c r="L767">
+        <f>B767/ C767</f>
         <v>0</v>
       </c>
     </row>
@@ -32658,6 +33424,7 @@
         <v>1011</v>
       </c>
       <c r="L768">
+        <f>B768/ C768</f>
         <v>0</v>
       </c>
     </row>
@@ -32696,6 +33463,7 @@
         <v>1012</v>
       </c>
       <c r="L769">
+        <f>B769/ C769</f>
         <v>0</v>
       </c>
     </row>
@@ -32734,6 +33502,7 @@
         <v>1015</v>
       </c>
       <c r="L770">
+        <f>B770/ C770</f>
         <v>0</v>
       </c>
     </row>
@@ -32772,6 +33541,7 @@
         <v>1024</v>
       </c>
       <c r="L771">
+        <f>B771/ C771</f>
         <v>0</v>
       </c>
     </row>
@@ -32810,6 +33580,7 @@
         <v>1011</v>
       </c>
       <c r="L772">
+        <f>B772/ C772</f>
         <v>0</v>
       </c>
     </row>
@@ -32848,6 +33619,7 @@
         <v>1011</v>
       </c>
       <c r="L773">
+        <f>B773/ C773</f>
         <v>0</v>
       </c>
     </row>
@@ -32886,6 +33658,7 @@
         <v>1012</v>
       </c>
       <c r="L774">
+        <f>B774/ C774</f>
         <v>0</v>
       </c>
     </row>
@@ -32924,6 +33697,7 @@
         <v>1013</v>
       </c>
       <c r="L775">
+        <f>B775/ C775</f>
         <v>0</v>
       </c>
     </row>
@@ -32962,6 +33736,7 @@
         <v>1011</v>
       </c>
       <c r="L776">
+        <f>B776/ C776</f>
         <v>0</v>
       </c>
     </row>
@@ -33000,6 +33775,7 @@
         <v>1011</v>
       </c>
       <c r="L777">
+        <f>B777/ C777</f>
         <v>0</v>
       </c>
     </row>
@@ -33038,6 +33814,7 @@
         <v>1011</v>
       </c>
       <c r="L778">
+        <f>B778/ C778</f>
         <v>0</v>
       </c>
     </row>
@@ -33076,6 +33853,7 @@
         <v>1011</v>
       </c>
       <c r="L779">
+        <f>B779/ C779</f>
         <v>0</v>
       </c>
     </row>
@@ -33114,6 +33892,7 @@
         <v>1011</v>
       </c>
       <c r="L780">
+        <f>B780/ C780</f>
         <v>0</v>
       </c>
     </row>
@@ -33152,6 +33931,7 @@
         <v>1011</v>
       </c>
       <c r="L781">
+        <f>B781/ C781</f>
         <v>0</v>
       </c>
     </row>
@@ -33190,6 +33970,7 @@
         <v>1016</v>
       </c>
       <c r="L782">
+        <f>B782/ C782</f>
         <v>0</v>
       </c>
     </row>
@@ -33228,6 +34009,7 @@
         <v>1013</v>
       </c>
       <c r="L783">
+        <f>B783/ C783</f>
         <v>0</v>
       </c>
     </row>
@@ -33266,6 +34048,7 @@
         <v>1011</v>
       </c>
       <c r="L784">
+        <f>B784/ C784</f>
         <v>0</v>
       </c>
     </row>
@@ -33304,6 +34087,7 @@
         <v>1011</v>
       </c>
       <c r="L785">
+        <f>B785/ C785</f>
         <v>0</v>
       </c>
     </row>
@@ -33342,6 +34126,7 @@
         <v>1015</v>
       </c>
       <c r="L786">
+        <f>B786/ C786</f>
         <v>0</v>
       </c>
     </row>
@@ -33380,6 +34165,7 @@
         <v>1011</v>
       </c>
       <c r="L787">
+        <f>B787/ C787</f>
         <v>0</v>
       </c>
     </row>
@@ -33418,6 +34204,7 @@
         <v>1011</v>
       </c>
       <c r="L788">
+        <f>B788/ C788</f>
         <v>0</v>
       </c>
     </row>
@@ -33456,6 +34243,7 @@
         <v>1022</v>
       </c>
       <c r="L789">
+        <f>B789/ C789</f>
         <v>0</v>
       </c>
     </row>
@@ -33494,6 +34282,7 @@
         <v>1016</v>
       </c>
       <c r="L790">
+        <f>B790/ C790</f>
         <v>0</v>
       </c>
     </row>
@@ -33532,6 +34321,7 @@
         <v>1015</v>
       </c>
       <c r="L791">
+        <f>B791/ C791</f>
         <v>0</v>
       </c>
     </row>
@@ -33570,6 +34360,7 @@
         <v>1017</v>
       </c>
       <c r="L792">
+        <f>B792/ C792</f>
         <v>0</v>
       </c>
     </row>
@@ -33608,6 +34399,7 @@
         <v>1015</v>
       </c>
       <c r="L793">
+        <f>B793/ C793</f>
         <v>0</v>
       </c>
     </row>
@@ -33646,6 +34438,7 @@
         <v>1011</v>
       </c>
       <c r="L794">
+        <f>B794/ C794</f>
         <v>0</v>
       </c>
     </row>
@@ -33684,6 +34477,7 @@
         <v>1011</v>
       </c>
       <c r="L795">
+        <f>B795/ C795</f>
         <v>0</v>
       </c>
     </row>
@@ -33722,6 +34516,7 @@
         <v>1011</v>
       </c>
       <c r="L796">
+        <f>B796/ C796</f>
         <v>0</v>
       </c>
     </row>
@@ -33760,6 +34555,7 @@
         <v>1022</v>
       </c>
       <c r="L797">
+        <f>B797/ C797</f>
         <v>0</v>
       </c>
     </row>
@@ -33798,6 +34594,7 @@
         <v>1012</v>
       </c>
       <c r="L798">
+        <f>B798/ C798</f>
         <v>0</v>
       </c>
     </row>
@@ -33836,6 +34633,7 @@
         <v>1013</v>
       </c>
       <c r="L799">
+        <f>B799/ C799</f>
         <v>0</v>
       </c>
     </row>
@@ -33874,6 +34672,7 @@
         <v>1013</v>
       </c>
       <c r="L800">
+        <f>B800/ C800</f>
         <v>0</v>
       </c>
     </row>
@@ -33912,6 +34711,7 @@
         <v>1011</v>
       </c>
       <c r="L801">
+        <f>B801/ C801</f>
         <v>0</v>
       </c>
     </row>
@@ -33950,6 +34750,7 @@
         <v>1017</v>
       </c>
       <c r="L802">
+        <f>B802/ C802</f>
         <v>0</v>
       </c>
     </row>
@@ -33988,6 +34789,7 @@
         <v>1016</v>
       </c>
       <c r="L803">
+        <f>B803/ C803</f>
         <v>0</v>
       </c>
     </row>
@@ -34026,6 +34828,7 @@
         <v>1021</v>
       </c>
       <c r="L804">
+        <f>B804/ C804</f>
         <v>0</v>
       </c>
     </row>
@@ -34064,6 +34867,7 @@
         <v>1016</v>
       </c>
       <c r="L805">
+        <f>B805/ C805</f>
         <v>0</v>
       </c>
     </row>
@@ -34102,6 +34906,7 @@
         <v>1011</v>
       </c>
       <c r="L806">
+        <f>B806/ C806</f>
         <v>0</v>
       </c>
     </row>
@@ -34140,6 +34945,7 @@
         <v>1011</v>
       </c>
       <c r="L807">
+        <f>B807/ C807</f>
         <v>0</v>
       </c>
     </row>
@@ -34178,6 +34984,7 @@
         <v>1014</v>
       </c>
       <c r="L808">
+        <f>B808/ C808</f>
         <v>0</v>
       </c>
     </row>
@@ -34216,6 +35023,7 @@
         <v>1014</v>
       </c>
       <c r="L809">
+        <f>B809/ C809</f>
         <v>0</v>
       </c>
     </row>
@@ -34254,6 +35062,7 @@
         <v>1016</v>
       </c>
       <c r="L810">
+        <f>B810/ C810</f>
         <v>0</v>
       </c>
     </row>
@@ -34292,6 +35101,7 @@
         <v>1013</v>
       </c>
       <c r="L811">
+        <f>B811/ C811</f>
         <v>0</v>
       </c>
     </row>
@@ -34330,6 +35140,7 @@
         <v>1013</v>
       </c>
       <c r="L812">
+        <f>B812/ C812</f>
         <v>0</v>
       </c>
     </row>
@@ -34368,6 +35179,7 @@
         <v>1017</v>
       </c>
       <c r="L813">
+        <f>B813/ C813</f>
         <v>0</v>
       </c>
     </row>
@@ -34406,6 +35218,7 @@
         <v>1013</v>
       </c>
       <c r="L814">
+        <f>B814/ C814</f>
         <v>0</v>
       </c>
     </row>
@@ -34444,6 +35257,7 @@
         <v>1019</v>
       </c>
       <c r="L815">
+        <f>B815/ C815</f>
         <v>0</v>
       </c>
     </row>
@@ -34482,6 +35296,7 @@
         <v>1017</v>
       </c>
       <c r="L816">
+        <f>B816/ C816</f>
         <v>0</v>
       </c>
     </row>
@@ -34520,6 +35335,7 @@
         <v>1019</v>
       </c>
       <c r="L817">
+        <f>B817/ C817</f>
         <v>0</v>
       </c>
     </row>
@@ -34558,6 +35374,7 @@
         <v>1011</v>
       </c>
       <c r="L818">
+        <f>B818/ C818</f>
         <v>0</v>
       </c>
     </row>
@@ -34596,6 +35413,7 @@
         <v>1011</v>
       </c>
       <c r="L819">
+        <f>B819/ C819</f>
         <v>0</v>
       </c>
     </row>
@@ -34634,6 +35452,7 @@
         <v>1023</v>
       </c>
       <c r="L820">
+        <f>B820/ C820</f>
         <v>0</v>
       </c>
     </row>
@@ -34672,6 +35491,7 @@
         <v>1011</v>
       </c>
       <c r="L821">
+        <f>B821/ C821</f>
         <v>0</v>
       </c>
     </row>
@@ -34710,6 +35530,7 @@
         <v>1020</v>
       </c>
       <c r="L822">
+        <f>B822/ C822</f>
         <v>0</v>
       </c>
     </row>
@@ -34748,6 +35569,7 @@
         <v>1013</v>
       </c>
       <c r="L823">
+        <f>B823/ C823</f>
         <v>0</v>
       </c>
     </row>
@@ -34786,6 +35608,7 @@
         <v>1011</v>
       </c>
       <c r="L824">
+        <f>B824/ C824</f>
         <v>0</v>
       </c>
     </row>
@@ -34824,6 +35647,7 @@
         <v>1011</v>
       </c>
       <c r="L825">
+        <f>B825/ C825</f>
         <v>0</v>
       </c>
     </row>
@@ -34862,6 +35686,7 @@
         <v>1014</v>
       </c>
       <c r="L826">
+        <f>B826/ C826</f>
         <v>0</v>
       </c>
     </row>
@@ -34900,6 +35725,7 @@
         <v>1013</v>
       </c>
       <c r="L827">
+        <f>B827/ C827</f>
         <v>0</v>
       </c>
     </row>
@@ -34938,6 +35764,7 @@
         <v>1013</v>
       </c>
       <c r="L828">
+        <f>B828/ C828</f>
         <v>0</v>
       </c>
     </row>
@@ -34976,6 +35803,7 @@
         <v>1017</v>
       </c>
       <c r="L829">
+        <f>B829/ C829</f>
         <v>0</v>
       </c>
     </row>
@@ -35014,6 +35842,7 @@
         <v>1011</v>
       </c>
       <c r="L830">
+        <f>B830/ C830</f>
         <v>0</v>
       </c>
     </row>
@@ -35052,6 +35881,7 @@
         <v>1011</v>
       </c>
       <c r="L831">
+        <f>B831/ C831</f>
         <v>0</v>
       </c>
     </row>
@@ -35090,6 +35920,7 @@
         <v>1011</v>
       </c>
       <c r="L832">
+        <f>B832/ C832</f>
         <v>0</v>
       </c>
     </row>
@@ -35128,6 +35959,7 @@
         <v>1011</v>
       </c>
       <c r="L833">
+        <f>B833/ C833</f>
         <v>0</v>
       </c>
     </row>
@@ -35166,6 +35998,7 @@
         <v>1014</v>
       </c>
       <c r="L834">
+        <f>B834/ C834</f>
         <v>0</v>
       </c>
     </row>
@@ -35204,6 +36037,7 @@
         <v>1011</v>
       </c>
       <c r="L835">
+        <f>B835/ C835</f>
         <v>0</v>
       </c>
     </row>
@@ -35242,6 +36076,7 @@
         <v>1011</v>
       </c>
       <c r="L836">
+        <f>B836/ C836</f>
         <v>0</v>
       </c>
     </row>
@@ -35280,6 +36115,7 @@
         <v>1011</v>
       </c>
       <c r="L837">
+        <f>B837/ C837</f>
         <v>0</v>
       </c>
     </row>
@@ -35318,6 +36154,7 @@
         <v>1012</v>
       </c>
       <c r="L838">
+        <f>B838/ C838</f>
         <v>0</v>
       </c>
     </row>
@@ -35356,6 +36193,7 @@
         <v>1011</v>
       </c>
       <c r="L839">
+        <f>B839/ C839</f>
         <v>0</v>
       </c>
     </row>
@@ -35394,6 +36232,7 @@
         <v>1011</v>
       </c>
       <c r="L840">
+        <f>B840/ C840</f>
         <v>0</v>
       </c>
     </row>
@@ -35432,6 +36271,7 @@
         <v>1011</v>
       </c>
       <c r="L841">
+        <f>B841/ C841</f>
         <v>0</v>
       </c>
     </row>
@@ -35470,6 +36310,7 @@
         <v>1011</v>
       </c>
       <c r="L842">
+        <f>B842/ C842</f>
         <v>0</v>
       </c>
     </row>
@@ -35508,6 +36349,7 @@
         <v>1013</v>
       </c>
       <c r="L843">
+        <f>B843/ C843</f>
         <v>0</v>
       </c>
     </row>
@@ -35546,6 +36388,7 @@
         <v>1014</v>
       </c>
       <c r="L844">
+        <f>B844/ C844</f>
         <v>0</v>
       </c>
     </row>
@@ -35584,6 +36427,7 @@
         <v>1011</v>
       </c>
       <c r="L845">
+        <f>B845/ C845</f>
         <v>0</v>
       </c>
     </row>
@@ -35622,6 +36466,7 @@
         <v>1016</v>
       </c>
       <c r="L846">
+        <f>B846/ C846</f>
         <v>0</v>
       </c>
     </row>
@@ -35660,6 +36505,7 @@
         <v>1018</v>
       </c>
       <c r="L847">
+        <f>B847/ C847</f>
         <v>0</v>
       </c>
     </row>
@@ -35698,6 +36544,7 @@
         <v>1014</v>
       </c>
       <c r="L848">
+        <f>B848/ C848</f>
         <v>0</v>
       </c>
     </row>
@@ -35736,6 +36583,7 @@
         <v>1013</v>
       </c>
       <c r="L849">
+        <f>B849/ C849</f>
         <v>0</v>
       </c>
     </row>
@@ -35774,6 +36622,7 @@
         <v>1011</v>
       </c>
       <c r="L850">
+        <f>B850/ C850</f>
         <v>0</v>
       </c>
     </row>
@@ -35812,6 +36661,7 @@
         <v>1011</v>
       </c>
       <c r="L851">
+        <f>B851/ C851</f>
         <v>0</v>
       </c>
     </row>
@@ -35850,6 +36700,7 @@
         <v>1011</v>
       </c>
       <c r="L852">
+        <f>B852/ C852</f>
         <v>0</v>
       </c>
     </row>
@@ -35888,6 +36739,7 @@
         <v>1017</v>
       </c>
       <c r="L853">
+        <f>B853/ C853</f>
         <v>0</v>
       </c>
     </row>
@@ -35926,6 +36778,7 @@
         <v>1017</v>
       </c>
       <c r="L854">
+        <f>B854/ C854</f>
         <v>0</v>
       </c>
     </row>
@@ -35964,6 +36817,7 @@
         <v>1011</v>
       </c>
       <c r="L855">
+        <f>B855/ C855</f>
         <v>0</v>
       </c>
     </row>
@@ -36002,6 +36856,7 @@
         <v>1011</v>
       </c>
       <c r="L856">
+        <f>B856/ C856</f>
         <v>0</v>
       </c>
     </row>
@@ -36040,6 +36895,7 @@
         <v>1016</v>
       </c>
       <c r="L857">
+        <f>B857/ C857</f>
         <v>0</v>
       </c>
     </row>
@@ -36078,6 +36934,7 @@
         <v>1011</v>
       </c>
       <c r="L858">
+        <f>B858/ C858</f>
         <v>0</v>
       </c>
     </row>
@@ -36116,6 +36973,7 @@
         <v>1011</v>
       </c>
       <c r="L859">
+        <f>B859/ C859</f>
         <v>0</v>
       </c>
     </row>
@@ -36154,6 +37012,7 @@
         <v>1011</v>
       </c>
       <c r="L860">
+        <f>B860/ C860</f>
         <v>0</v>
       </c>
     </row>
@@ -36192,6 +37051,7 @@
         <v>1011</v>
       </c>
       <c r="L861">
+        <f>B861/ C861</f>
         <v>0</v>
       </c>
     </row>
@@ -36230,6 +37090,7 @@
         <v>1022</v>
       </c>
       <c r="L862">
+        <f>B862/ C862</f>
         <v>0</v>
       </c>
     </row>
@@ -36268,6 +37129,7 @@
         <v>1011</v>
       </c>
       <c r="L863">
+        <f>B863/ C863</f>
         <v>0</v>
       </c>
     </row>
@@ -36306,6 +37168,7 @@
         <v>1011</v>
       </c>
       <c r="L864">
+        <f>B864/ C864</f>
         <v>0</v>
       </c>
     </row>
@@ -36344,6 +37207,7 @@
         <v>1011</v>
       </c>
       <c r="L865">
+        <f>B865/ C865</f>
         <v>0</v>
       </c>
     </row>
@@ -36382,6 +37246,7 @@
         <v>1011</v>
       </c>
       <c r="L866">
+        <f>B866/ C866</f>
         <v>0</v>
       </c>
     </row>
@@ -36420,6 +37285,7 @@
         <v>1024</v>
       </c>
       <c r="L867">
+        <f>B867/ C867</f>
         <v>0</v>
       </c>
     </row>
@@ -36458,6 +37324,7 @@
         <v>1013</v>
       </c>
       <c r="L868">
+        <f>B868/ C868</f>
         <v>0</v>
       </c>
     </row>
@@ -36496,6 +37363,7 @@
         <v>1021</v>
       </c>
       <c r="L869">
+        <f>B869/ C869</f>
         <v>0</v>
       </c>
     </row>
@@ -36534,6 +37402,7 @@
         <v>1020</v>
       </c>
       <c r="L870">
+        <f>B870/ C870</f>
         <v>0</v>
       </c>
     </row>
@@ -36572,6 +37441,7 @@
         <v>1011</v>
       </c>
       <c r="L871">
+        <f>B871/ C871</f>
         <v>0</v>
       </c>
     </row>
@@ -36610,6 +37480,7 @@
         <v>1019</v>
       </c>
       <c r="L872">
+        <f>B872/ C872</f>
         <v>0</v>
       </c>
     </row>
@@ -36648,6 +37519,7 @@
         <v>1018</v>
       </c>
       <c r="L873">
+        <f>B873/ C873</f>
         <v>0</v>
       </c>
     </row>
@@ -36686,6 +37558,7 @@
         <v>1017</v>
       </c>
       <c r="L874">
+        <f>B874/ C874</f>
         <v>0</v>
       </c>
     </row>
@@ -36724,6 +37597,7 @@
         <v>1014</v>
       </c>
       <c r="L875">
+        <f>B875/ C875</f>
         <v>0</v>
       </c>
     </row>
@@ -36762,6 +37636,7 @@
         <v>1017</v>
       </c>
       <c r="L876">
+        <f>B876/ C876</f>
         <v>0</v>
       </c>
     </row>
@@ -36800,6 +37675,7 @@
         <v>1015</v>
       </c>
       <c r="L877">
+        <f>B877/ C877</f>
         <v>0</v>
       </c>
     </row>
@@ -36838,6 +37714,7 @@
         <v>1019</v>
       </c>
       <c r="L878">
+        <f>B878/ C878</f>
         <v>0</v>
       </c>
     </row>
@@ -36876,6 +37753,7 @@
         <v>1011</v>
       </c>
       <c r="L879">
+        <f>B879/ C879</f>
         <v>0</v>
       </c>
     </row>
@@ -36914,6 +37792,7 @@
         <v>1014</v>
       </c>
       <c r="L880">
+        <f>B880/ C880</f>
         <v>0</v>
       </c>
     </row>
@@ -36952,6 +37831,7 @@
         <v>1011</v>
       </c>
       <c r="L881">
+        <f>B881/ C881</f>
         <v>0</v>
       </c>
     </row>
@@ -36990,6 +37870,7 @@
         <v>1025</v>
       </c>
       <c r="L882">
+        <f>B882/ C882</f>
         <v>0</v>
       </c>
     </row>
@@ -37028,6 +37909,7 @@
         <v>1019</v>
       </c>
       <c r="L883">
+        <f>B883/ C883</f>
         <v>0</v>
       </c>
     </row>
@@ -37066,6 +37948,7 @@
         <v>1021</v>
       </c>
       <c r="L884">
+        <f>B884/ C884</f>
         <v>0</v>
       </c>
     </row>
@@ -37104,6 +37987,7 @@
         <v>1011</v>
       </c>
       <c r="L885">
+        <f>B885/ C885</f>
         <v>0</v>
       </c>
     </row>
@@ -37142,6 +38026,7 @@
         <v>1017</v>
       </c>
       <c r="L886">
+        <f>B886/ C886</f>
         <v>0</v>
       </c>
     </row>
@@ -37180,6 +38065,7 @@
         <v>1011</v>
       </c>
       <c r="L887">
+        <f>B887/ C887</f>
         <v>0</v>
       </c>
     </row>
@@ -37218,6 +38104,7 @@
         <v>1014</v>
       </c>
       <c r="L888">
+        <f>B888/ C888</f>
         <v>0</v>
       </c>
     </row>
@@ -37256,6 +38143,7 @@
         <v>1017</v>
       </c>
       <c r="L889">
+        <f>B889/ C889</f>
         <v>0</v>
       </c>
     </row>
@@ -37294,6 +38182,7 @@
         <v>1012</v>
       </c>
       <c r="L890">
+        <f>B890/ C890</f>
         <v>0</v>
       </c>
     </row>
@@ -37332,6 +38221,7 @@
         <v>1011</v>
       </c>
       <c r="L891">
+        <f>B891/ C891</f>
         <v>0</v>
       </c>
     </row>
@@ -37370,6 +38260,7 @@
         <v>1018</v>
       </c>
       <c r="L892">
+        <f>B892/ C892</f>
         <v>0</v>
       </c>
     </row>
@@ -37408,6 +38299,7 @@
         <v>1011</v>
       </c>
       <c r="L893">
+        <f>B893/ C893</f>
         <v>0</v>
       </c>
     </row>
@@ -37446,6 +38338,7 @@
         <v>1011</v>
       </c>
       <c r="L894">
+        <f>B894/ C894</f>
         <v>0</v>
       </c>
     </row>
@@ -37484,6 +38377,7 @@
         <v>1011</v>
       </c>
       <c r="L895">
+        <f>B895/ C895</f>
         <v>0</v>
       </c>
     </row>
@@ -37522,6 +38416,7 @@
         <v>1016</v>
       </c>
       <c r="L896">
+        <f>B896/ C896</f>
         <v>0</v>
       </c>
     </row>
@@ -37560,6 +38455,7 @@
         <v>1011</v>
       </c>
       <c r="L897">
+        <f>B897/ C897</f>
         <v>0</v>
       </c>
     </row>
@@ -37598,6 +38494,7 @@
         <v>1015</v>
       </c>
       <c r="L898">
+        <f>B898/ C898</f>
         <v>0</v>
       </c>
     </row>
@@ -37636,6 +38533,7 @@
         <v>1011</v>
       </c>
       <c r="L899">
+        <f>B899/ C899</f>
         <v>0</v>
       </c>
     </row>
@@ -37674,6 +38572,7 @@
         <v>1016</v>
       </c>
       <c r="L900">
+        <f>B900/ C900</f>
         <v>0</v>
       </c>
     </row>
@@ -37712,6 +38611,7 @@
         <v>1014</v>
       </c>
       <c r="L901">
+        <f>B901/ C901</f>
         <v>0</v>
       </c>
     </row>
@@ -37750,6 +38650,7 @@
         <v>1011</v>
       </c>
       <c r="L902">
+        <f>B902/ C902</f>
         <v>0</v>
       </c>
     </row>
@@ -37788,6 +38689,7 @@
         <v>1011</v>
       </c>
       <c r="L903">
+        <f>B903/ C903</f>
         <v>0</v>
       </c>
     </row>
@@ -37826,6 +38728,7 @@
         <v>1011</v>
       </c>
       <c r="L904">
+        <f>B904/ C904</f>
         <v>0</v>
       </c>
     </row>
@@ -37864,6 +38767,7 @@
         <v>1016</v>
       </c>
       <c r="L905">
+        <f>B905/ C905</f>
         <v>0</v>
       </c>
     </row>
@@ -37902,6 +38806,7 @@
         <v>1022</v>
       </c>
       <c r="L906">
+        <f>B906/ C906</f>
         <v>0</v>
       </c>
     </row>
@@ -37940,6 +38845,7 @@
         <v>1023</v>
       </c>
       <c r="L907">
+        <f>B907/ C907</f>
         <v>0</v>
       </c>
     </row>
@@ -37978,6 +38884,7 @@
         <v>1013</v>
       </c>
       <c r="L908">
+        <f>B908/ C908</f>
         <v>0</v>
       </c>
     </row>
@@ -38016,6 +38923,7 @@
         <v>1011</v>
       </c>
       <c r="L909">
+        <f>B909/ C909</f>
         <v>0</v>
       </c>
     </row>
@@ -38054,6 +38962,7 @@
         <v>1012</v>
       </c>
       <c r="L910">
+        <f>B910/ C910</f>
         <v>0</v>
       </c>
     </row>
@@ -38092,6 +39001,7 @@
         <v>1011</v>
       </c>
       <c r="L911">
+        <f>B911/ C911</f>
         <v>0</v>
       </c>
     </row>
@@ -38130,6 +39040,7 @@
         <v>1011</v>
       </c>
       <c r="L912">
+        <f>B912/ C912</f>
         <v>0</v>
       </c>
     </row>
@@ -38168,6 +39079,7 @@
         <v>1013</v>
       </c>
       <c r="L913">
+        <f>B913/ C913</f>
         <v>0</v>
       </c>
     </row>
@@ -38206,6 +39118,7 @@
         <v>1011</v>
       </c>
       <c r="L914">
+        <f>B914/ C914</f>
         <v>0</v>
       </c>
     </row>
@@ -38244,6 +39157,7 @@
         <v>1011</v>
       </c>
       <c r="L915">
+        <f>B915/ C915</f>
         <v>0</v>
       </c>
     </row>
@@ -38282,6 +39196,7 @@
         <v>1012</v>
       </c>
       <c r="L916">
+        <f>B916/ C916</f>
         <v>0</v>
       </c>
     </row>
@@ -38320,6 +39235,7 @@
         <v>1015</v>
       </c>
       <c r="L917">
+        <f>B917/ C917</f>
         <v>0</v>
       </c>
     </row>
@@ -38358,6 +39274,7 @@
         <v>1011</v>
       </c>
       <c r="L918">
+        <f>B918/ C918</f>
         <v>0</v>
       </c>
     </row>
@@ -38396,6 +39313,7 @@
         <v>1021</v>
       </c>
       <c r="L919">
+        <f>B919/ C919</f>
         <v>0</v>
       </c>
     </row>
@@ -38434,6 +39352,7 @@
         <v>1011</v>
       </c>
       <c r="L920">
+        <f>B920/ C920</f>
         <v>0</v>
       </c>
     </row>
@@ -38472,6 +39391,7 @@
         <v>1011</v>
       </c>
       <c r="L921">
+        <f>B921/ C921</f>
         <v>0</v>
       </c>
     </row>
@@ -38510,6 +39430,7 @@
         <v>1013</v>
       </c>
       <c r="L922">
+        <f>B922/ C922</f>
         <v>0</v>
       </c>
     </row>
@@ -38548,6 +39469,7 @@
         <v>1011</v>
       </c>
       <c r="L923">
+        <f>B923/ C923</f>
         <v>0</v>
       </c>
     </row>
@@ -38586,6 +39508,7 @@
         <v>1031</v>
       </c>
       <c r="L924">
+        <f>B924/ C924</f>
         <v>0</v>
       </c>
     </row>
@@ -38624,6 +39547,7 @@
         <v>1015</v>
       </c>
       <c r="L925">
+        <f>B925/ C925</f>
         <v>0</v>
       </c>
     </row>
@@ -38662,6 +39586,7 @@
         <v>1011</v>
       </c>
       <c r="L926">
+        <f>B926/ C926</f>
         <v>0</v>
       </c>
     </row>
@@ -38700,6 +39625,7 @@
         <v>1016</v>
       </c>
       <c r="L927">
+        <f>B927/ C927</f>
         <v>0</v>
       </c>
     </row>
@@ -38738,6 +39664,7 @@
         <v>1011</v>
       </c>
       <c r="L928">
+        <f>B928/ C928</f>
         <v>0</v>
       </c>
     </row>
@@ -38776,6 +39703,7 @@
         <v>1011</v>
       </c>
       <c r="L929">
+        <f>B929/ C929</f>
         <v>0</v>
       </c>
     </row>
@@ -38814,6 +39742,7 @@
         <v>1016</v>
       </c>
       <c r="L930">
+        <f>B930/ C930</f>
         <v>0</v>
       </c>
     </row>
@@ -38852,6 +39781,7 @@
         <v>1011</v>
       </c>
       <c r="L931">
+        <f>B931/ C931</f>
         <v>0</v>
       </c>
     </row>
@@ -38890,6 +39820,7 @@
         <v>1014</v>
       </c>
       <c r="L932">
+        <f>B932/ C932</f>
         <v>0</v>
       </c>
     </row>
@@ -38928,6 +39859,7 @@
         <v>1011</v>
       </c>
       <c r="L933">
+        <f>B933/ C933</f>
         <v>0</v>
       </c>
     </row>
@@ -38966,6 +39898,7 @@
         <v>1011</v>
       </c>
       <c r="L934">
+        <f>B934/ C934</f>
         <v>0</v>
       </c>
     </row>
@@ -39004,6 +39937,7 @@
         <v>1011</v>
       </c>
       <c r="L935">
+        <f>B935/ C935</f>
         <v>0</v>
       </c>
     </row>
@@ -39042,6 +39976,7 @@
         <v>1011</v>
       </c>
       <c r="L936">
+        <f>B936/ C936</f>
         <v>0</v>
       </c>
     </row>
@@ -39080,6 +40015,7 @@
         <v>1013</v>
       </c>
       <c r="L937">
+        <f>B937/ C937</f>
         <v>0</v>
       </c>
     </row>
@@ -39118,6 +40054,7 @@
         <v>1012</v>
       </c>
       <c r="L938">
+        <f>B938/ C938</f>
         <v>0</v>
       </c>
     </row>
@@ -39156,6 +40093,7 @@
         <v>1022</v>
       </c>
       <c r="L939">
+        <f>B939/ C939</f>
         <v>0</v>
       </c>
     </row>
@@ -39194,6 +40132,7 @@
         <v>1011</v>
       </c>
       <c r="L940">
+        <f>B940/ C940</f>
         <v>0</v>
       </c>
     </row>
@@ -39232,6 +40171,7 @@
         <v>1016</v>
       </c>
       <c r="L941">
+        <f>B941/ C941</f>
         <v>0</v>
       </c>
     </row>
@@ -39270,6 +40210,7 @@
         <v>1019</v>
       </c>
       <c r="L942">
+        <f>B942/ C942</f>
         <v>0</v>
       </c>
     </row>
@@ -39308,6 +40249,7 @@
         <v>1014</v>
       </c>
       <c r="L943">
+        <f>B943/ C943</f>
         <v>0</v>
       </c>
     </row>
@@ -39346,6 +40288,7 @@
         <v>1016</v>
       </c>
       <c r="L944">
+        <f>B944/ C944</f>
         <v>0</v>
       </c>
     </row>
@@ -39384,6 +40327,7 @@
         <v>1011</v>
       </c>
       <c r="L945">
+        <f>B945/ C945</f>
         <v>0</v>
       </c>
     </row>
@@ -39422,6 +40366,7 @@
         <v>1013</v>
       </c>
       <c r="L946">
+        <f>B946/ C946</f>
         <v>0</v>
       </c>
     </row>
@@ -39460,6 +40405,7 @@
         <v>1017</v>
       </c>
       <c r="L947">
+        <f>B947/ C947</f>
         <v>0</v>
       </c>
     </row>
@@ -39498,6 +40444,7 @@
         <v>1012</v>
       </c>
       <c r="L948">
+        <f>B948/ C948</f>
         <v>0</v>
       </c>
     </row>
@@ -39536,6 +40483,7 @@
         <v>1012</v>
       </c>
       <c r="L949">
+        <f>B949/ C949</f>
         <v>0</v>
       </c>
     </row>
@@ -39574,6 +40522,7 @@
         <v>1012</v>
       </c>
       <c r="L950">
+        <f>B950/ C950</f>
         <v>0</v>
       </c>
     </row>
@@ -39612,6 +40561,7 @@
         <v>1015</v>
       </c>
       <c r="L951">
+        <f>B951/ C951</f>
         <v>0</v>
       </c>
     </row>
@@ -39650,6 +40600,7 @@
         <v>1021</v>
       </c>
       <c r="L952">
+        <f>B952/ C952</f>
         <v>0</v>
       </c>
     </row>
@@ -39688,6 +40639,7 @@
         <v>1011</v>
       </c>
       <c r="L953">
+        <f>B953/ C953</f>
         <v>0</v>
       </c>
     </row>
@@ -39726,6 +40678,7 @@
         <v>1013</v>
       </c>
       <c r="L954">
+        <f>B954/ C954</f>
         <v>0</v>
       </c>
     </row>
@@ -39764,6 +40717,7 @@
         <v>1011</v>
       </c>
       <c r="L955">
+        <f>B955/ C955</f>
         <v>0</v>
       </c>
     </row>
@@ -39802,6 +40756,7 @@
         <v>1015</v>
       </c>
       <c r="L956">
+        <f>B956/ C956</f>
         <v>0</v>
       </c>
     </row>
@@ -39840,6 +40795,7 @@
         <v>1013</v>
       </c>
       <c r="L957">
+        <f>B957/ C957</f>
         <v>0</v>
       </c>
     </row>
@@ -39878,6 +40834,7 @@
         <v>1017</v>
       </c>
       <c r="L958">
+        <f>B958/ C958</f>
         <v>0</v>
       </c>
     </row>
@@ -39916,6 +40873,7 @@
         <v>1011</v>
       </c>
       <c r="L959">
+        <f>B959/ C959</f>
         <v>0</v>
       </c>
     </row>
@@ -39954,6 +40912,7 @@
         <v>1016</v>
       </c>
       <c r="L960">
+        <f>B960/ C960</f>
         <v>0</v>
       </c>
     </row>
@@ -39992,6 +40951,7 @@
         <v>1012</v>
       </c>
       <c r="L961">
+        <f>B961/ C961</f>
         <v>0</v>
       </c>
     </row>
@@ -40030,6 +40990,7 @@
         <v>1021</v>
       </c>
       <c r="L962">
+        <f>B962/ C962</f>
         <v>0</v>
       </c>
     </row>
@@ -40068,6 +41029,7 @@
         <v>1011</v>
       </c>
       <c r="L963">
+        <f>B963/ C963</f>
         <v>0</v>
       </c>
     </row>
@@ -40106,6 +41068,7 @@
         <v>1015</v>
       </c>
       <c r="L964">
+        <f>B964/ C964</f>
         <v>0</v>
       </c>
     </row>
@@ -40144,6 +41107,7 @@
         <v>1011</v>
       </c>
       <c r="L965">
+        <f>B965/ C965</f>
         <v>0</v>
       </c>
     </row>
@@ -40182,6 +41146,7 @@
         <v>1016</v>
       </c>
       <c r="L966">
+        <f>B966/ C966</f>
         <v>0</v>
       </c>
     </row>
@@ -40220,6 +41185,7 @@
         <v>1015</v>
       </c>
       <c r="L967">
+        <f>B967/ C967</f>
         <v>0</v>
       </c>
     </row>
@@ -40258,6 +41224,7 @@
         <v>1011</v>
       </c>
       <c r="L968">
+        <f>B968/ C968</f>
         <v>0</v>
       </c>
     </row>
@@ -40296,6 +41263,7 @@
         <v>1011</v>
       </c>
       <c r="L969">
+        <f>B969/ C969</f>
         <v>0</v>
       </c>
     </row>
@@ -40334,6 +41302,7 @@
         <v>1011</v>
       </c>
       <c r="L970">
+        <f>B970/ C970</f>
         <v>0</v>
       </c>
     </row>
@@ -40372,6 +41341,7 @@
         <v>1011</v>
       </c>
       <c r="L971">
+        <f>B971/ C971</f>
         <v>0</v>
       </c>
     </row>
@@ -40410,6 +41380,7 @@
         <v>1014</v>
       </c>
       <c r="L972">
+        <f>B972/ C972</f>
         <v>0</v>
       </c>
     </row>
@@ -40448,6 +41419,7 @@
         <v>1012</v>
       </c>
       <c r="L973">
+        <f>B973/ C973</f>
         <v>0</v>
       </c>
     </row>
@@ -40486,6 +41458,7 @@
         <v>1016</v>
       </c>
       <c r="L974">
+        <f>B974/ C974</f>
         <v>0</v>
       </c>
     </row>
@@ -40524,6 +41497,7 @@
         <v>1017</v>
       </c>
       <c r="L975">
+        <f>B975/ C975</f>
         <v>0</v>
       </c>
     </row>
@@ -40562,6 +41536,7 @@
         <v>1017</v>
       </c>
       <c r="L976">
+        <f>B976/ C976</f>
         <v>0</v>
       </c>
     </row>
@@ -40600,6 +41575,7 @@
         <v>1011</v>
       </c>
       <c r="L977">
+        <f>B977/ C977</f>
         <v>0</v>
       </c>
     </row>
@@ -40638,6 +41614,7 @@
         <v>1011</v>
       </c>
       <c r="L978">
+        <f>B978/ C978</f>
         <v>0</v>
       </c>
     </row>
@@ -40676,6 +41653,7 @@
         <v>1012</v>
       </c>
       <c r="L979">
+        <f>B979/ C979</f>
         <v>0</v>
       </c>
     </row>
@@ -40714,6 +41692,7 @@
         <v>1015</v>
       </c>
       <c r="L980">
+        <f>B980/ C980</f>
         <v>0</v>
       </c>
     </row>
@@ -40752,6 +41731,7 @@
         <v>1012</v>
       </c>
       <c r="L981">
+        <f>B981/ C981</f>
         <v>0</v>
       </c>
     </row>
@@ -40790,6 +41770,7 @@
         <v>1011</v>
       </c>
       <c r="L982">
+        <f>B982/ C982</f>
         <v>0</v>
       </c>
     </row>
@@ -40828,6 +41809,7 @@
         <v>1012</v>
       </c>
       <c r="L983">
+        <f>B983/ C983</f>
         <v>0</v>
       </c>
     </row>
@@ -40866,6 +41848,7 @@
         <v>1011</v>
       </c>
       <c r="L984">
+        <f>B984/ C984</f>
         <v>0</v>
       </c>
     </row>
@@ -40904,6 +41887,7 @@
         <v>1014</v>
       </c>
       <c r="L985">
+        <f>B985/ C985</f>
         <v>0</v>
       </c>
     </row>
@@ -40942,6 +41926,7 @@
         <v>1011</v>
       </c>
       <c r="L986">
+        <f>B986/ C986</f>
         <v>0</v>
       </c>
     </row>
@@ -40980,6 +41965,7 @@
         <v>1011</v>
       </c>
       <c r="L987">
+        <f>B987/ C987</f>
         <v>0</v>
       </c>
     </row>
@@ -41018,6 +42004,7 @@
         <v>1011</v>
       </c>
       <c r="L988">
+        <f>B988/ C988</f>
         <v>0</v>
       </c>
     </row>
@@ -41056,6 +42043,7 @@
         <v>1016</v>
       </c>
       <c r="L989">
+        <f>B989/ C989</f>
         <v>0</v>
       </c>
     </row>
@@ -41094,6 +42082,7 @@
         <v>1011</v>
       </c>
       <c r="L990">
+        <f>B990/ C990</f>
         <v>0</v>
       </c>
     </row>
@@ -41132,6 +42121,7 @@
         <v>1011</v>
       </c>
       <c r="L991">
+        <f>B991/ C991</f>
         <v>0</v>
       </c>
     </row>
@@ -41170,6 +42160,7 @@
         <v>1011</v>
       </c>
       <c r="L992">
+        <f>B992/ C992</f>
         <v>0</v>
       </c>
     </row>
@@ -41208,6 +42199,7 @@
         <v>1015</v>
       </c>
       <c r="L993">
+        <f>B993/ C993</f>
         <v>0</v>
       </c>
     </row>
@@ -41246,6 +42238,7 @@
         <v>1011</v>
       </c>
       <c r="L994">
+        <f>B994/ C994</f>
         <v>0</v>
       </c>
     </row>
@@ -41284,6 +42277,7 @@
         <v>1011</v>
       </c>
       <c r="L995">
+        <f>B995/ C995</f>
         <v>0</v>
       </c>
     </row>
@@ -41322,6 +42316,7 @@
         <v>1011</v>
       </c>
       <c r="L996">
+        <f>B996/ C996</f>
         <v>0</v>
       </c>
     </row>
@@ -41360,6 +42355,7 @@
         <v>1013</v>
       </c>
       <c r="L997">
+        <f>B997/ C997</f>
         <v>0</v>
       </c>
     </row>
@@ -41398,6 +42394,7 @@
         <v>1015</v>
       </c>
       <c r="L998">
+        <f>B998/ C998</f>
         <v>0</v>
       </c>
     </row>
@@ -41436,6 +42433,7 @@
         <v>1015</v>
       </c>
       <c r="L999">
+        <f>B999/ C999</f>
         <v>0</v>
       </c>
     </row>
@@ -41474,6 +42472,7 @@
         <v>1011</v>
       </c>
       <c r="L1000">
+        <f>B1000/ C1000</f>
         <v>0</v>
       </c>
     </row>
@@ -41512,6 +42511,7 @@
         <v>1016</v>
       </c>
       <c r="L1001">
+        <f>B1001/ C1001</f>
         <v>0</v>
       </c>
     </row>
